--- a/cocos 引擎变更(3.16).xlsx
+++ b/cocos 引擎变更(3.16).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_创建项目" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Project("{8BC9CEB8-8B4A-11D0-8D11-00A0C91BC942}") = "libbox2d", "..\..\..\..\GXFramework\external\Box2D\proj.win32\libbox2d.vcxproj", "{929480E7-23C0-4DF6-8456-096D71547116}"</t>
   </si>
@@ -137,530 +137,534 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>后期生成事件：xcopy /Y /Q "$(ProjectDir)..\lib\lang" "$(OutDir)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main.cpp ： </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序入口 APIENTRY --&gt; WINAPI</t>
+  </si>
+  <si>
+    <t>AppDelegate.cpp</t>
+  </si>
+  <si>
+    <t>// register lua module</t>
+  </si>
+  <si>
+    <t>auto engine = LuaEngine::getInstance();</t>
+  </si>
+  <si>
+    <t>ScriptEngineManager::getInstance()-&gt;setScriptEngine(engine);</t>
+  </si>
+  <si>
+    <t>lua_State* L = engine-&gt;getLuaStack()-&gt;getLuaState();</t>
+  </si>
+  <si>
+    <t>lua_module_register(L);</t>
+  </si>
+  <si>
+    <t>register_all_packages();</t>
+  </si>
+  <si>
+    <t>LuaStack* stack = engine-&gt;getLuaStack();</t>
+  </si>
+  <si>
+    <t>stack-&gt;setXXTEAKeyAndSign("2dxLua", strlen("2dxLua"), "XXTEA", strlen("XXTEA"));</t>
+  </si>
+  <si>
+    <t>//register custom function</t>
+  </si>
+  <si>
+    <t>//LuaStack* stack = engine-&gt;getLuaStack();</t>
+  </si>
+  <si>
+    <t>//register_custom_function(stack-&gt;getLuaState());</t>
+  </si>
+  <si>
+    <t>#if CC_64BITS</t>
+  </si>
+  <si>
+    <t>FileUtils::getInstance()-&gt;addSearchPath("src/64bit");</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>FileUtils::getInstance()-&gt;addSearchPath("src");</t>
+  </si>
+  <si>
+    <t>FileUtils::getInstance()-&gt;addSearchPath("res");</t>
+  </si>
+  <si>
+    <t>if (engine-&gt;executeScriptFile("main.lua"))</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>在applicationDidFinishLaunching方法中添加执行lua 脚本代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static int register_all_packages()</t>
+  </si>
+  <si>
+    <t>return 0; //flag for packages manager</t>
+  </si>
+  <si>
+    <t>1.3 settings.gradle 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 build.gradle(app module) 文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>module_paths = [project.file(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"../../../../../GXFramework"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).absolutePath,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    project.file(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"../../../../../GXFramework/cocos"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).absolutePath,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    project.file(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"../../../../../GXFramework/external"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).absolutePath]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    compileLua(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${buildDir}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/intermediates/assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${variant.dirName}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/src"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${buildDir}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/intermediates/assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${variant.dirName}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/src"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, encryptLua)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   . 理解原生通信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   . 连接heroes服务器</t>
+  </si>
+  <si>
+    <t>-- 使用新版cocos引擎 3.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   . 扩展引擎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   . 建立创建项目脚本</t>
+  </si>
+  <si>
+    <t>cocos 网络通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python, bat, gradle 学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>project(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>':libcocos2dx'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).projectDir = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000043"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">File(settingsDir, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'../../../../GXFramework/cocos/platform/android/libcocos2dx'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预先生成事件：if not exist "$(OutDir)" mkdir "$(OutDir)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>链接器 --&gt; 输入： 删除mozjs-33.lib, 添加 libcurl.lib</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预先生成事件：if not exist "$(OutDir)" mkdir "$(OutDir)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后期生成事件：xcopy /Y /Q "$(ProjectDir)..\lib\lang" "$(OutDir)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">main.cpp ： </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序入口 APIENTRY --&gt; WINAPI</t>
-  </si>
-  <si>
-    <t>AppDelegate.cpp</t>
-  </si>
-  <si>
     <t>添加引用 #include "scripting/lua-bindings/manual/lua_module_register.h"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>// register lua module</t>
-  </si>
-  <si>
-    <t>auto engine = LuaEngine::getInstance();</t>
-  </si>
-  <si>
-    <t>ScriptEngineManager::getInstance()-&gt;setScriptEngine(engine);</t>
-  </si>
-  <si>
-    <t>lua_State* L = engine-&gt;getLuaStack()-&gt;getLuaState();</t>
-  </si>
-  <si>
-    <t>lua_module_register(L);</t>
-  </si>
-  <si>
-    <t>register_all_packages();</t>
-  </si>
-  <si>
-    <t>LuaStack* stack = engine-&gt;getLuaStack();</t>
-  </si>
-  <si>
-    <t>stack-&gt;setXXTEAKeyAndSign("2dxLua", strlen("2dxLua"), "XXTEA", strlen("XXTEA"));</t>
-  </si>
-  <si>
-    <t>//register custom function</t>
-  </si>
-  <si>
-    <t>//LuaStack* stack = engine-&gt;getLuaStack();</t>
-  </si>
-  <si>
-    <t>//register_custom_function(stack-&gt;getLuaState());</t>
-  </si>
-  <si>
-    <t>#if CC_64BITS</t>
-  </si>
-  <si>
-    <t>FileUtils::getInstance()-&gt;addSearchPath("src/64bit");</t>
-  </si>
-  <si>
-    <t>#endif</t>
-  </si>
-  <si>
-    <t>FileUtils::getInstance()-&gt;addSearchPath("src");</t>
-  </si>
-  <si>
-    <t>FileUtils::getInstance()-&gt;addSearchPath("res");</t>
-  </si>
-  <si>
-    <t>if (engine-&gt;executeScriptFile("main.lua"))</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>return false;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>在applicationDidFinishLaunching方法中添加执行lua 脚本代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static int register_all_packages()</t>
-  </si>
-  <si>
-    <t>return 0; //flag for packages manager</t>
-  </si>
-  <si>
-    <t>1.3 settings.gradle 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4 build.gradle(app module) 文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">def </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>module_paths = [project.file(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"../../../../../GXFramework"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).absolutePath,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    project.file(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"../../../../../GXFramework/cocos"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).absolutePath,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                    project.file(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"../../../../../GXFramework/external"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).absolutePath]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">case </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    compileLua(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${buildDir}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/intermediates/assets/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${variant.dirName}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/src"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${buildDir}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/intermediates/assets/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${variant.dirName}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/src"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000043"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000043"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, encryptLua)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   . 理解原生通信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   . 连接heroes服务器</t>
-  </si>
-  <si>
-    <t>-- 使用新版cocos引擎 3.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   . 扩展引擎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   . 建立创建项目脚本</t>
-  </si>
-  <si>
-    <t>cocos 网络通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python, bat, gradle 学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>project(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>':libcocos2dx'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).projectDir = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF000043"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">File(settingsDir, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'../../../../GXFramework/cocos/platform/android/libcocos2dx'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>链接器 --&gt; 输出文件：修改输出文件到  $(OutDir)$(TargetName)$(TargetExt)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1287,17 +1291,17 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C50" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
@@ -1305,37 +1309,37 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C56" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C57" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C63" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1347,9 +1351,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1388,12 +1392,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1403,157 +1407,162 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="1" t="s">
-        <v>43</v>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E36" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E42" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.15">
       <c r="E45" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D49" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E47" s="1" t="s">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E49" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E50" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F51" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E52" s="1" t="s">
-        <v>62</v>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1576,37 +1585,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/cocos 引擎变更(3.16).xlsx
+++ b/cocos 引擎变更(3.16).xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01_创建项目" sheetId="1" r:id="rId1"/>
     <sheet name="02_模拟器" sheetId="2" r:id="rId2"/>
     <sheet name="03_cocos_console" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="04_protobuf" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>EndProject</t>
   </si>
@@ -705,6 +706,69 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qing666888/article/details/79137963</t>
+  </si>
+  <si>
+    <t>2.在cocos2d 中使用protobuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.protobuf 编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中需要分别编译debug,release版本，用于开发时的debug,release.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译成功后运行install 工程，默认安装到C盘，详细查看生成日志.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细查看以下教程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本(3.5.1)编译成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本(3.6.0)编译失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; C++ --&gt; 常规 --&gt; 附加包含目录 --&gt; 添加拷贝过来头文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; C++ --&gt; 预处理器 --&gt; 预处理器定义 --&gt; 添加预处理宏(静态库:_SCL_SECURE_NO_WARNINGS,动态库:PROTOBUF_USE_DLLS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 拷贝protobuf安装目录下include,bin,lib 至工程目录,区域Debug,Release库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 常规 --&gt; 附加库目录 --&gt; 添加protobuf库目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 输入 --&gt; 附加库目录 --&gt; 附加依赖项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 生成事件 --&gt; 预先生成事件 --&gt; 命令行 --&gt; 添加拷贝命令，拷贝protobuf库到输入目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG,RELEASE配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加protobuf 生成器，生成的协议文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN32" sqref="AN32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1687,9 +1753,109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/cocos 引擎变更(3.16).xlsx
+++ b/cocos 引擎变更(3.16).xlsx
@@ -744,31 +744,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.1 拷贝protobuf安装目录下include,bin,lib 至工程目录,区域Debug,Release库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 常规 --&gt; 附加库目录 --&gt; 添加protobuf库目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 输入 --&gt; 附加库目录 --&gt; 附加依赖项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工程属性 --&gt; 生成事件 --&gt; 预先生成事件 --&gt; 命令行 --&gt; 添加拷贝命令，拷贝protobuf库到输入目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG,RELEASE配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加protobuf 生成器，生成的协议文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  工程属性 --&gt; C++ --&gt; 预处理器 --&gt; 预处理器定义 --&gt; 添加预处理宏(静态库:_SCL_SECURE_NO_WARNINGS,动态库:PROTOBUF_USE_DLLS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 拷贝protobuf安装目录下include,bin,lib 至工程目录,区域Debug,Release库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 常规 --&gt; 附加库目录 --&gt; 添加protobuf库目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  工程属性 --&gt; 链接器 --&gt; 输入 --&gt; 附加库目录 --&gt; 附加依赖项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  工程属性 --&gt; 生成事件 --&gt; 预先生成事件 --&gt; 命令行 --&gt; 添加拷贝命令，拷贝protobuf库到输入目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEBUG,RELEASE配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加protobuf 生成器，生成的协议文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,12 +1804,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -1819,27 +1819,27 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/cocos 引擎变更(3.16).xlsx
+++ b/cocos 引擎变更(3.16).xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="01_创建项目" sheetId="1" r:id="rId1"/>
     <sheet name="02_模拟器" sheetId="2" r:id="rId2"/>
     <sheet name="03_cocos_console" sheetId="6" r:id="rId3"/>
     <sheet name="04_protobuf" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="05_cjson(lua)" sheetId="9" r:id="rId5"/>
+    <sheet name="06_MD5（lua）" sheetId="8" r:id="rId6"/>
+    <sheet name="05_cjson (3)" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
   <si>
     <t>EndProject</t>
   </si>
@@ -769,6 +771,97 @@
   </si>
   <si>
     <t xml:space="preserve">  工程属性 --&gt; C++ --&gt; 预处理器 --&gt; 预处理器定义 --&gt; 添加预处理宏(静态库:_SCL_SECURE_NO_WARNINGS,动态库:PROTOBUF_USE_DLLS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libluacocos2d工程中添加cjson引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libluacocos2d工程中导出lua方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\03_GxGit\GxFramework\cocos\scripting\lua-bindings\proj.android</t>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同win32,添加cjson引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考网址：https://www.cnblogs.com/zhangdw/p/6824350.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导出全局module宏：ENABLE_CJSON_GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改lua-bindings工程下的android.mk文件，添加cjson c文件编译信息,添加ENABLE_CJSON_GLOBAL宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成quick-lua中的md5库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libluacocos2d工程中添加md5引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写MD5注册到lua的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在lua_module_register中注册lua_md5方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改lua-bindings工程下的android.mk文件，添加lua_md5.c文件编译信息,添加HAVE_OPENSSL宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同win32,添加md5引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -885,6 +978,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,6 +995,282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186659</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="560294"/>
+          <a:ext cx="3828571" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>130464</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="212912" y="2566147"/>
+          <a:ext cx="5161905" cy="3819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>145695</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>140012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201706" y="6925236"/>
+          <a:ext cx="8819048" cy="4980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>132404</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>73202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="235323" y="13346206"/>
+          <a:ext cx="7561905" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122670</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201706" y="1053353"/>
+          <a:ext cx="4761905" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>20179</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>122101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201706" y="4874559"/>
+          <a:ext cx="8895238" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49439</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>75525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="212912" y="11138648"/>
+          <a:ext cx="7904762" cy="5409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,17 +1560,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D63"/>
+  <dimension ref="A2:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN32" sqref="AN32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
@@ -1398,6 +1772,11 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D44" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -1753,15 +2132,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>97</v>
@@ -1851,59 +2235,207 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B77" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B119" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B103"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B103" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cocos 引擎变更(3.16).xlsx
+++ b/cocos 引擎变更(3.16).xlsx
@@ -10,17 +10,18 @@
     <sheet name="01_创建项目" sheetId="1" r:id="rId1"/>
     <sheet name="02_模拟器" sheetId="2" r:id="rId2"/>
     <sheet name="03_cocos_console" sheetId="6" r:id="rId3"/>
-    <sheet name="04_protobuf" sheetId="7" r:id="rId4"/>
+    <sheet name="04_protobuf(c++)" sheetId="7" r:id="rId4"/>
     <sheet name="05_cjson(lua)" sheetId="9" r:id="rId5"/>
     <sheet name="06_MD5（lua）" sheetId="8" r:id="rId6"/>
-    <sheet name="05_cjson (3)" sheetId="10" r:id="rId7"/>
+    <sheet name="07_pbc-lua" sheetId="10" r:id="rId7"/>
+    <sheet name="05_cjson (4)" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="206">
   <si>
     <t>EndProject</t>
   </si>
@@ -786,6 +787,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>win32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,74 +799,312 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E:\03_GxGit\GxFramework\cocos\scripting\lua-bindings\proj.android</t>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同win32,添加cjson引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考网址：https://www.cnblogs.com/zhangdw/p/6824350.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导出全局module宏：ENABLE_CJSON_GLOBAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改lua-bindings工程下的android.mk文件，添加cjson c文件编译信息,添加ENABLE_CJSON_GLOBAL宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成quick-lua中的md5库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>win32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>libluacocos2d工程中添加md5引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写MD5注册到lua的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在lua_module_register中注册lua_md5方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>android</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\03_GxGit\GxFramework\cocos\scripting\lua-bindings\proj.android</t>
+    <t>修改lua-bindings工程下的android.mk文件，添加lua_md5.c文件编译信息,添加HAVE_OPENSSL宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mac</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同win32,添加cjson引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考网址：https://www.cnblogs.com/zhangdw/p/6824350.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加导出全局module宏：ENABLE_CJSON_GLOBAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改lua-bindings工程下的android.mk文件，添加cjson c文件编译信息,添加ENABLE_CJSON_GLOBAL宏定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成quick-lua中的md5库</t>
+    <t>同win32,添加md5引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ganpengjin1/article/details/50964961</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/chevin/p/6001872.html</t>
+  </si>
+  <si>
+    <t>pbc-lua:https://github.com/cloudwu/pbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win32:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加下载的pbc lua工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Lua注册头文件pbc-lua.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifndef PBC_LUA_H</t>
+  </si>
+  <si>
+    <t>#define PBC_LUA_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  pbc-lua.h  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  pbc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  Created by ArcherPeng on 15/7/21.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//  Copyright (c) 2015年 ztgame. All rights reserved.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#if defined(_USRDLL)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define LUA_EXTENSIONS_DLL     __declspec(dllexport)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#else         /* use a DLL library */  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define LUA_EXTENSIONS_DLL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#if __cplusplus  </t>
+  </si>
+  <si>
+    <t>extern "C" {</t>
+  </si>
+  <si>
+    <t>//#include "lauxlib.h"</t>
+  </si>
+  <si>
+    <t>int LUA_EXTENSIONS_DLL luaopen_protobuf_c(lua_State *L);</t>
+  </si>
+  <si>
+    <t>#endif/* pbc_pbc_lua_h */</t>
+  </si>
+  <si>
+    <t>添加Lua包含目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbc工程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libluacocos2d工程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加pbc工程引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(图1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写lua导出方法（图2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifndef __LUA_LuaUserGlobalMethod_H_</t>
+  </si>
+  <si>
+    <t>#define __LUA_LuaUserGlobalMethod_H_</t>
+  </si>
+  <si>
+    <t>#ifdef __cplusplus</t>
+  </si>
+  <si>
+    <t>#include "tolua++.h"</t>
+  </si>
+  <si>
+    <t>TOLUA_API int  register_pbc_module(lua_State* L);</t>
+  </si>
+  <si>
+    <t>#endif // __LUA_LuaUserGlobalMethod_H_</t>
+  </si>
+  <si>
+    <t>#include "lua_cocos2dx_pbc_manual.h"</t>
+  </si>
+  <si>
+    <t>#include "platform/CCPlatformConfig.h"</t>
+  </si>
+  <si>
+    <t>#include "base/ccConfig.h"</t>
+  </si>
+  <si>
+    <t>#include "scripting/lua-bindings/manual/tolua_fix.h"</t>
+  </si>
+  <si>
+    <t>#include "scripting/lua-bindings/manual/LuaBasicConversions.h"</t>
+  </si>
+  <si>
+    <t>#include "scripting/lua-bindings/manual/CCLuaEngine.h"</t>
+  </si>
+  <si>
+    <t>#include "external/pbc-master/pbc-lua.h"</t>
+  </si>
+  <si>
+    <t>#include "cocos/platform/CCFileUtils.h"</t>
+  </si>
+  <si>
+    <t>int read_protobuf_file(lua_State *L) {</t>
+  </si>
+  <si>
+    <t>const char *buff = luaL_checkstring(L, -1);</t>
+  </si>
+  <si>
+    <t>Data data = cocos2d::FileUtils::getInstance()-&gt;getDataFromFile(buff);</t>
+  </si>
+  <si>
+    <t>lua_pushlstring(L, (const char*)data.getBytes(), data.getSize());</t>
+  </si>
+  <si>
+    <t>return 1;</t>
+  </si>
+  <si>
+    <t>TOLUA_API int register_pbc_module(lua_State* L)</t>
+  </si>
+  <si>
+    <t>//luaopen_protobuf_c(L);</t>
+  </si>
+  <si>
+    <t>lua_getglobal(L, "_G");</t>
+  </si>
+  <si>
+    <t>if (lua_istable(L, -1))//stack:...,_G,</t>
+  </si>
+  <si>
+    <t>lua_register(L, "read_protobuf_file_c", read_protobuf_file);</t>
+  </si>
+  <si>
+    <t>luaopen_protobuf_c(L);</t>
+  </si>
+  <si>
+    <t>lua_pop(L, 1);</t>
+  </si>
+  <si>
+    <t>//lua_register(L, "read_protobuf_file_c", read_protobuf_file);</t>
+  </si>
+  <si>
+    <t>android:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写pbc工程 android.mk文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pbc-lua.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_cocos2dx_pbc_manual.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_cocos2dx_pbc_manual.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在引擎mk文件中，导入添加的pbc模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\02_GxGame\GxFramework\cocos\Android.mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在lua-binding模块中，添加pbc_static引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\02_GxGame\GxFramework\cocos\scripting\lua-bindings\proj.android\Android.mk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在lua_module_register.cpp中注册lua方法(图3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>win32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libluacocos2d工程中添加md5引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写MD5注册到lua的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在lua_module_register中注册lua_md5方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改lua-bindings工程下的android.mk文件，添加lua_md5.c文件编译信息,添加HAVE_OPENSSL宏定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同win32,添加md5引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,8 +1192,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -958,11 +1207,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -980,6 +1309,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1262,6 +1600,277 @@
         <a:xfrm>
           <a:off x="212912" y="11138648"/>
           <a:ext cx="7904762" cy="5409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>121108</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572001" y="515470"/>
+          <a:ext cx="3819048" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>111608</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>77492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4560795" y="3350559"/>
+          <a:ext cx="3619048" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>94786</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3036794" y="8113059"/>
+          <a:ext cx="3714286" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>82583</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>155106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1949824" y="9300883"/>
+          <a:ext cx="7209524" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>42829</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>77232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1927412" y="10130117"/>
+          <a:ext cx="6990476" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>155743</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>103577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1972236" y="10914529"/>
+          <a:ext cx="4638095" cy="619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21984</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224119" y="2644588"/>
+          <a:ext cx="3428571" cy="4219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,7 +2180,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1776,7 +2385,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -2143,7 +2752,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -2246,7 +2855,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -2261,22 +2870,22 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
@@ -2284,17 +2893,17 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2318,37 +2927,37 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
@@ -2356,17 +2965,17 @@
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2379,9 +2988,4970 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EH74"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="13"/>
+      <c r="CH2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="13"/>
+      <c r="DG2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="13"/>
+    </row>
+    <row r="3" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX3" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="16"/>
+      <c r="CH3" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="15"/>
+      <c r="CZ3" s="15"/>
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="16"/>
+      <c r="DG3" s="14"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="15"/>
+      <c r="DJ3" s="15"/>
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="15"/>
+      <c r="DO3" s="15"/>
+      <c r="DP3" s="15"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="15"/>
+      <c r="DT3" s="15"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
+      <c r="DW3" s="15"/>
+      <c r="DX3" s="15"/>
+      <c r="DY3" s="15"/>
+      <c r="DZ3" s="15"/>
+      <c r="EA3" s="15"/>
+      <c r="EB3" s="15"/>
+      <c r="EC3" s="15"/>
+      <c r="ED3" s="15"/>
+      <c r="EE3" s="15"/>
+      <c r="EF3" s="15"/>
+      <c r="EG3" s="15"/>
+      <c r="EH3" s="16"/>
+    </row>
+    <row r="4" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="16"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="15"/>
+      <c r="CQ4" s="15"/>
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="15"/>
+      <c r="CT4" s="15"/>
+      <c r="CU4" s="15"/>
+      <c r="CV4" s="15"/>
+      <c r="CW4" s="15"/>
+      <c r="CX4" s="15"/>
+      <c r="CY4" s="15"/>
+      <c r="CZ4" s="15"/>
+      <c r="DA4" s="15"/>
+      <c r="DB4" s="15"/>
+      <c r="DC4" s="15"/>
+      <c r="DD4" s="16"/>
+      <c r="DG4" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH4" s="15"/>
+      <c r="DI4" s="15"/>
+      <c r="DJ4" s="15"/>
+      <c r="DK4" s="15"/>
+      <c r="DL4" s="15"/>
+      <c r="DM4" s="15"/>
+      <c r="DN4" s="15"/>
+      <c r="DO4" s="15"/>
+      <c r="DP4" s="15"/>
+      <c r="DQ4" s="15"/>
+      <c r="DR4" s="15"/>
+      <c r="DS4" s="15"/>
+      <c r="DT4" s="15"/>
+      <c r="DU4" s="15"/>
+      <c r="DV4" s="15"/>
+      <c r="DW4" s="15"/>
+      <c r="DX4" s="15"/>
+      <c r="DY4" s="15"/>
+      <c r="DZ4" s="15"/>
+      <c r="EA4" s="15"/>
+      <c r="EB4" s="15"/>
+      <c r="EC4" s="15"/>
+      <c r="ED4" s="15"/>
+      <c r="EE4" s="15"/>
+      <c r="EF4" s="15"/>
+      <c r="EG4" s="15"/>
+      <c r="EH4" s="16"/>
+    </row>
+    <row r="5" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+      <c r="BU5" s="15"/>
+      <c r="BV5" s="15"/>
+      <c r="BW5" s="15"/>
+      <c r="BX5" s="15"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="16"/>
+      <c r="CH5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="15"/>
+      <c r="CQ5" s="15"/>
+      <c r="CR5" s="15"/>
+      <c r="CS5" s="15"/>
+      <c r="CT5" s="15"/>
+      <c r="CU5" s="15"/>
+      <c r="CV5" s="15"/>
+      <c r="CW5" s="15"/>
+      <c r="CX5" s="15"/>
+      <c r="CY5" s="15"/>
+      <c r="CZ5" s="15"/>
+      <c r="DA5" s="15"/>
+      <c r="DB5" s="15"/>
+      <c r="DC5" s="15"/>
+      <c r="DD5" s="16"/>
+      <c r="DG5" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="DH5" s="15"/>
+      <c r="DI5" s="15"/>
+      <c r="DJ5" s="15"/>
+      <c r="DK5" s="15"/>
+      <c r="DL5" s="15"/>
+      <c r="DM5" s="15"/>
+      <c r="DN5" s="15"/>
+      <c r="DO5" s="15"/>
+      <c r="DP5" s="15"/>
+      <c r="DQ5" s="15"/>
+      <c r="DR5" s="15"/>
+      <c r="DS5" s="15"/>
+      <c r="DT5" s="15"/>
+      <c r="DU5" s="15"/>
+      <c r="DV5" s="15"/>
+      <c r="DW5" s="15"/>
+      <c r="DX5" s="15"/>
+      <c r="DY5" s="15"/>
+      <c r="DZ5" s="15"/>
+      <c r="EA5" s="15"/>
+      <c r="EB5" s="15"/>
+      <c r="EC5" s="15"/>
+      <c r="ED5" s="15"/>
+      <c r="EE5" s="15"/>
+      <c r="EF5" s="15"/>
+      <c r="EG5" s="15"/>
+      <c r="EH5" s="16"/>
+    </row>
+    <row r="6" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="16"/>
+      <c r="CH6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="15"/>
+      <c r="CQ6" s="15"/>
+      <c r="CR6" s="15"/>
+      <c r="CS6" s="15"/>
+      <c r="CT6" s="15"/>
+      <c r="CU6" s="15"/>
+      <c r="CV6" s="15"/>
+      <c r="CW6" s="15"/>
+      <c r="CX6" s="15"/>
+      <c r="CY6" s="15"/>
+      <c r="CZ6" s="15"/>
+      <c r="DA6" s="15"/>
+      <c r="DB6" s="15"/>
+      <c r="DC6" s="15"/>
+      <c r="DD6" s="16"/>
+      <c r="DG6" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH6" s="15"/>
+      <c r="DI6" s="15"/>
+      <c r="DJ6" s="15"/>
+      <c r="DK6" s="15"/>
+      <c r="DL6" s="15"/>
+      <c r="DM6" s="15"/>
+      <c r="DN6" s="15"/>
+      <c r="DO6" s="15"/>
+      <c r="DP6" s="15"/>
+      <c r="DQ6" s="15"/>
+      <c r="DR6" s="15"/>
+      <c r="DS6" s="15"/>
+      <c r="DT6" s="15"/>
+      <c r="DU6" s="15"/>
+      <c r="DV6" s="15"/>
+      <c r="DW6" s="15"/>
+      <c r="DX6" s="15"/>
+      <c r="DY6" s="15"/>
+      <c r="DZ6" s="15"/>
+      <c r="EA6" s="15"/>
+      <c r="EB6" s="15"/>
+      <c r="EC6" s="15"/>
+      <c r="ED6" s="15"/>
+      <c r="EE6" s="15"/>
+      <c r="EF6" s="15"/>
+      <c r="EG6" s="15"/>
+      <c r="EH6" s="16"/>
+    </row>
+    <row r="7" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="16"/>
+      <c r="CH7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="15"/>
+      <c r="CQ7" s="15"/>
+      <c r="CR7" s="15"/>
+      <c r="CS7" s="15"/>
+      <c r="CT7" s="15"/>
+      <c r="CU7" s="15"/>
+      <c r="CV7" s="15"/>
+      <c r="CW7" s="15"/>
+      <c r="CX7" s="15"/>
+      <c r="CY7" s="15"/>
+      <c r="CZ7" s="15"/>
+      <c r="DA7" s="15"/>
+      <c r="DB7" s="15"/>
+      <c r="DC7" s="15"/>
+      <c r="DD7" s="16"/>
+      <c r="DG7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DH7" s="15"/>
+      <c r="DI7" s="15"/>
+      <c r="DJ7" s="15"/>
+      <c r="DK7" s="15"/>
+      <c r="DL7" s="15"/>
+      <c r="DM7" s="15"/>
+      <c r="DN7" s="15"/>
+      <c r="DO7" s="15"/>
+      <c r="DP7" s="15"/>
+      <c r="DQ7" s="15"/>
+      <c r="DR7" s="15"/>
+      <c r="DS7" s="15"/>
+      <c r="DT7" s="15"/>
+      <c r="DU7" s="15"/>
+      <c r="DV7" s="15"/>
+      <c r="DW7" s="15"/>
+      <c r="DX7" s="15"/>
+      <c r="DY7" s="15"/>
+      <c r="DZ7" s="15"/>
+      <c r="EA7" s="15"/>
+      <c r="EB7" s="15"/>
+      <c r="EC7" s="15"/>
+      <c r="ED7" s="15"/>
+      <c r="EE7" s="15"/>
+      <c r="EF7" s="15"/>
+      <c r="EG7" s="15"/>
+      <c r="EH7" s="16"/>
+    </row>
+    <row r="8" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="15"/>
+      <c r="BV8" s="15"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="15"/>
+      <c r="BY8" s="15"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="15"/>
+      <c r="CC8" s="15"/>
+      <c r="CD8" s="16"/>
+      <c r="CH8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="15"/>
+      <c r="CQ8" s="15"/>
+      <c r="CR8" s="15"/>
+      <c r="CS8" s="15"/>
+      <c r="CT8" s="15"/>
+      <c r="CU8" s="15"/>
+      <c r="CV8" s="15"/>
+      <c r="CW8" s="15"/>
+      <c r="CX8" s="15"/>
+      <c r="CY8" s="15"/>
+      <c r="CZ8" s="15"/>
+      <c r="DA8" s="15"/>
+      <c r="DB8" s="15"/>
+      <c r="DC8" s="15"/>
+      <c r="DD8" s="16"/>
+      <c r="DG8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="DH8" s="15"/>
+      <c r="DI8" s="15"/>
+      <c r="DJ8" s="15"/>
+      <c r="DK8" s="15"/>
+      <c r="DL8" s="15"/>
+      <c r="DM8" s="15"/>
+      <c r="DN8" s="15"/>
+      <c r="DO8" s="15"/>
+      <c r="DP8" s="15"/>
+      <c r="DQ8" s="15"/>
+      <c r="DR8" s="15"/>
+      <c r="DS8" s="15"/>
+      <c r="DT8" s="15"/>
+      <c r="DU8" s="15"/>
+      <c r="DV8" s="15"/>
+      <c r="DW8" s="15"/>
+      <c r="DX8" s="15"/>
+      <c r="DY8" s="15"/>
+      <c r="DZ8" s="15"/>
+      <c r="EA8" s="15"/>
+      <c r="EB8" s="15"/>
+      <c r="EC8" s="15"/>
+      <c r="ED8" s="15"/>
+      <c r="EE8" s="15"/>
+      <c r="EF8" s="15"/>
+      <c r="EG8" s="15"/>
+      <c r="EH8" s="16"/>
+    </row>
+    <row r="9" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15"/>
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CD9" s="16"/>
+      <c r="CH9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI9" s="15"/>
+      <c r="CJ9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
+      <c r="CO9" s="15"/>
+      <c r="CP9" s="15"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15"/>
+      <c r="CU9" s="15"/>
+      <c r="CV9" s="15"/>
+      <c r="CW9" s="15"/>
+      <c r="CX9" s="15"/>
+      <c r="CY9" s="15"/>
+      <c r="CZ9" s="15"/>
+      <c r="DA9" s="15"/>
+      <c r="DB9" s="15"/>
+      <c r="DC9" s="15"/>
+      <c r="DD9" s="16"/>
+      <c r="DG9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DH9" s="15"/>
+      <c r="DI9" s="15"/>
+      <c r="DJ9" s="15"/>
+      <c r="DK9" s="15"/>
+      <c r="DL9" s="15"/>
+      <c r="DM9" s="15"/>
+      <c r="DN9" s="15"/>
+      <c r="DO9" s="15"/>
+      <c r="DP9" s="15"/>
+      <c r="DQ9" s="15"/>
+      <c r="DR9" s="15"/>
+      <c r="DS9" s="15"/>
+      <c r="DT9" s="15"/>
+      <c r="DU9" s="15"/>
+      <c r="DV9" s="15"/>
+      <c r="DW9" s="15"/>
+      <c r="DX9" s="15"/>
+      <c r="DY9" s="15"/>
+      <c r="DZ9" s="15"/>
+      <c r="EA9" s="15"/>
+      <c r="EB9" s="15"/>
+      <c r="EC9" s="15"/>
+      <c r="ED9" s="15"/>
+      <c r="EE9" s="15"/>
+      <c r="EF9" s="15"/>
+      <c r="EG9" s="15"/>
+      <c r="EH9" s="16"/>
+    </row>
+    <row r="10" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="16"/>
+      <c r="CH10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="15"/>
+      <c r="CQ10" s="15"/>
+      <c r="CR10" s="15"/>
+      <c r="CS10" s="15"/>
+      <c r="CT10" s="15"/>
+      <c r="CU10" s="15"/>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
+      <c r="CY10" s="15"/>
+      <c r="CZ10" s="15"/>
+      <c r="DA10" s="15"/>
+      <c r="DB10" s="15"/>
+      <c r="DC10" s="15"/>
+      <c r="DD10" s="16"/>
+      <c r="DG10" s="14"/>
+      <c r="DH10" s="15"/>
+      <c r="DI10" s="15"/>
+      <c r="DJ10" s="15"/>
+      <c r="DK10" s="15"/>
+      <c r="DL10" s="15"/>
+      <c r="DM10" s="15"/>
+      <c r="DN10" s="15"/>
+      <c r="DO10" s="15"/>
+      <c r="DP10" s="15"/>
+      <c r="DQ10" s="15"/>
+      <c r="DR10" s="15"/>
+      <c r="DS10" s="15"/>
+      <c r="DT10" s="15"/>
+      <c r="DU10" s="15"/>
+      <c r="DV10" s="15"/>
+      <c r="DW10" s="15"/>
+      <c r="DX10" s="15"/>
+      <c r="DY10" s="15"/>
+      <c r="DZ10" s="15"/>
+      <c r="EA10" s="15"/>
+      <c r="EB10" s="15"/>
+      <c r="EC10" s="15"/>
+      <c r="ED10" s="15"/>
+      <c r="EE10" s="15"/>
+      <c r="EF10" s="15"/>
+      <c r="EG10" s="15"/>
+      <c r="EH10" s="16"/>
+    </row>
+    <row r="11" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="15"/>
+      <c r="BU11" s="15"/>
+      <c r="BV11" s="15"/>
+      <c r="BW11" s="15"/>
+      <c r="BX11" s="15"/>
+      <c r="BY11" s="15"/>
+      <c r="BZ11" s="15"/>
+      <c r="CA11" s="15"/>
+      <c r="CB11" s="15"/>
+      <c r="CC11" s="15"/>
+      <c r="CD11" s="16"/>
+      <c r="CH11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI11" s="15"/>
+      <c r="CJ11" s="15"/>
+      <c r="CK11" s="15"/>
+      <c r="CL11" s="15"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="15"/>
+      <c r="CO11" s="15"/>
+      <c r="CP11" s="15"/>
+      <c r="CQ11" s="15"/>
+      <c r="CR11" s="15"/>
+      <c r="CS11" s="15"/>
+      <c r="CT11" s="15"/>
+      <c r="CU11" s="15"/>
+      <c r="CV11" s="15"/>
+      <c r="CW11" s="15"/>
+      <c r="CX11" s="15"/>
+      <c r="CY11" s="15"/>
+      <c r="CZ11" s="15"/>
+      <c r="DA11" s="15"/>
+      <c r="DB11" s="15"/>
+      <c r="DC11" s="15"/>
+      <c r="DD11" s="16"/>
+      <c r="DG11" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="DH11" s="15"/>
+      <c r="DI11" s="15"/>
+      <c r="DJ11" s="15"/>
+      <c r="DK11" s="15"/>
+      <c r="DL11" s="15"/>
+      <c r="DM11" s="15"/>
+      <c r="DN11" s="15"/>
+      <c r="DO11" s="15"/>
+      <c r="DP11" s="15"/>
+      <c r="DQ11" s="15"/>
+      <c r="DR11" s="15"/>
+      <c r="DS11" s="15"/>
+      <c r="DT11" s="15"/>
+      <c r="DU11" s="15"/>
+      <c r="DV11" s="15"/>
+      <c r="DW11" s="15"/>
+      <c r="DX11" s="15"/>
+      <c r="DY11" s="15"/>
+      <c r="DZ11" s="15"/>
+      <c r="EA11" s="15"/>
+      <c r="EB11" s="15"/>
+      <c r="EC11" s="15"/>
+      <c r="ED11" s="15"/>
+      <c r="EE11" s="15"/>
+      <c r="EF11" s="15"/>
+      <c r="EG11" s="15"/>
+      <c r="EH11" s="16"/>
+    </row>
+    <row r="12" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="15"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="16"/>
+      <c r="CH12" s="14"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="15"/>
+      <c r="CP12" s="15"/>
+      <c r="CQ12" s="15"/>
+      <c r="CR12" s="15"/>
+      <c r="CS12" s="15"/>
+      <c r="CT12" s="15"/>
+      <c r="CU12" s="15"/>
+      <c r="CV12" s="15"/>
+      <c r="CW12" s="15"/>
+      <c r="CX12" s="15"/>
+      <c r="CY12" s="15"/>
+      <c r="CZ12" s="15"/>
+      <c r="DA12" s="15"/>
+      <c r="DB12" s="15"/>
+      <c r="DC12" s="15"/>
+      <c r="DD12" s="16"/>
+      <c r="DG12" s="14"/>
+      <c r="DH12" s="15"/>
+      <c r="DI12" s="15"/>
+      <c r="DJ12" s="15"/>
+      <c r="DK12" s="15"/>
+      <c r="DL12" s="15"/>
+      <c r="DM12" s="15"/>
+      <c r="DN12" s="15"/>
+      <c r="DO12" s="15"/>
+      <c r="DP12" s="15"/>
+      <c r="DQ12" s="15"/>
+      <c r="DR12" s="15"/>
+      <c r="DS12" s="15"/>
+      <c r="DT12" s="15"/>
+      <c r="DU12" s="15"/>
+      <c r="DV12" s="15"/>
+      <c r="DW12" s="15"/>
+      <c r="DX12" s="15"/>
+      <c r="DY12" s="15"/>
+      <c r="DZ12" s="15"/>
+      <c r="EA12" s="15"/>
+      <c r="EB12" s="15"/>
+      <c r="EC12" s="15"/>
+      <c r="ED12" s="15"/>
+      <c r="EE12" s="15"/>
+      <c r="EF12" s="15"/>
+      <c r="EG12" s="15"/>
+      <c r="EH12" s="16"/>
+    </row>
+    <row r="13" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="16"/>
+      <c r="CH13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI13" s="15"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="15"/>
+      <c r="CO13" s="15"/>
+      <c r="CP13" s="15"/>
+      <c r="CQ13" s="15"/>
+      <c r="CR13" s="15"/>
+      <c r="CS13" s="15"/>
+      <c r="CT13" s="15"/>
+      <c r="CU13" s="15"/>
+      <c r="CV13" s="15"/>
+      <c r="CW13" s="15"/>
+      <c r="CX13" s="15"/>
+      <c r="CY13" s="15"/>
+      <c r="CZ13" s="15"/>
+      <c r="DA13" s="15"/>
+      <c r="DB13" s="15"/>
+      <c r="DC13" s="15"/>
+      <c r="DD13" s="16"/>
+      <c r="DG13" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="DH13" s="15"/>
+      <c r="DI13" s="15"/>
+      <c r="DJ13" s="15"/>
+      <c r="DK13" s="15"/>
+      <c r="DL13" s="15"/>
+      <c r="DM13" s="15"/>
+      <c r="DN13" s="15"/>
+      <c r="DO13" s="15"/>
+      <c r="DP13" s="15"/>
+      <c r="DQ13" s="15"/>
+      <c r="DR13" s="15"/>
+      <c r="DS13" s="15"/>
+      <c r="DT13" s="15"/>
+      <c r="DU13" s="15"/>
+      <c r="DV13" s="15"/>
+      <c r="DW13" s="15"/>
+      <c r="DX13" s="15"/>
+      <c r="DY13" s="15"/>
+      <c r="DZ13" s="15"/>
+      <c r="EA13" s="15"/>
+      <c r="EB13" s="15"/>
+      <c r="EC13" s="15"/>
+      <c r="ED13" s="15"/>
+      <c r="EE13" s="15"/>
+      <c r="EF13" s="15"/>
+      <c r="EG13" s="15"/>
+      <c r="EH13" s="16"/>
+    </row>
+    <row r="14" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
+      <c r="BS14" s="15"/>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="15"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="15"/>
+      <c r="BX14" s="15"/>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="16"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="15"/>
+      <c r="CJ14" s="15"/>
+      <c r="CK14" s="15"/>
+      <c r="CL14" s="15"/>
+      <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
+      <c r="CO14" s="15"/>
+      <c r="CP14" s="15"/>
+      <c r="CQ14" s="15"/>
+      <c r="CR14" s="15"/>
+      <c r="CS14" s="15"/>
+      <c r="CT14" s="15"/>
+      <c r="CU14" s="15"/>
+      <c r="CV14" s="15"/>
+      <c r="CW14" s="15"/>
+      <c r="CX14" s="15"/>
+      <c r="CY14" s="15"/>
+      <c r="CZ14" s="15"/>
+      <c r="DA14" s="15"/>
+      <c r="DB14" s="15"/>
+      <c r="DC14" s="15"/>
+      <c r="DD14" s="16"/>
+      <c r="DG14" s="14"/>
+      <c r="DH14" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="DI14" s="15"/>
+      <c r="DJ14" s="15"/>
+      <c r="DK14" s="15"/>
+      <c r="DL14" s="15"/>
+      <c r="DM14" s="15"/>
+      <c r="DN14" s="15"/>
+      <c r="DO14" s="15"/>
+      <c r="DP14" s="15"/>
+      <c r="DQ14" s="15"/>
+      <c r="DR14" s="15"/>
+      <c r="DS14" s="15"/>
+      <c r="DT14" s="15"/>
+      <c r="DU14" s="15"/>
+      <c r="DV14" s="15"/>
+      <c r="DW14" s="15"/>
+      <c r="DX14" s="15"/>
+      <c r="DY14" s="15"/>
+      <c r="DZ14" s="15"/>
+      <c r="EA14" s="15"/>
+      <c r="EB14" s="15"/>
+      <c r="EC14" s="15"/>
+      <c r="ED14" s="15"/>
+      <c r="EE14" s="15"/>
+      <c r="EF14" s="15"/>
+      <c r="EG14" s="15"/>
+      <c r="EH14" s="16"/>
+    </row>
+    <row r="15" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
+      <c r="BS15" s="15"/>
+      <c r="BT15" s="15"/>
+      <c r="BU15" s="15"/>
+      <c r="BV15" s="15"/>
+      <c r="BW15" s="15"/>
+      <c r="BX15" s="15"/>
+      <c r="BY15" s="15"/>
+      <c r="BZ15" s="15"/>
+      <c r="CA15" s="15"/>
+      <c r="CB15" s="15"/>
+      <c r="CC15" s="15"/>
+      <c r="CD15" s="16"/>
+      <c r="CH15" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI15" s="15"/>
+      <c r="CJ15" s="15"/>
+      <c r="CK15" s="15"/>
+      <c r="CL15" s="15"/>
+      <c r="CM15" s="15"/>
+      <c r="CN15" s="15"/>
+      <c r="CO15" s="15"/>
+      <c r="CP15" s="15"/>
+      <c r="CQ15" s="15"/>
+      <c r="CR15" s="15"/>
+      <c r="CS15" s="15"/>
+      <c r="CT15" s="15"/>
+      <c r="CU15" s="15"/>
+      <c r="CV15" s="15"/>
+      <c r="CW15" s="15"/>
+      <c r="CX15" s="15"/>
+      <c r="CY15" s="15"/>
+      <c r="CZ15" s="15"/>
+      <c r="DA15" s="15"/>
+      <c r="DB15" s="15"/>
+      <c r="DC15" s="15"/>
+      <c r="DD15" s="16"/>
+      <c r="DG15" s="14"/>
+      <c r="DH15" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="DI15" s="15"/>
+      <c r="DJ15" s="15"/>
+      <c r="DK15" s="15"/>
+      <c r="DL15" s="15"/>
+      <c r="DM15" s="15"/>
+      <c r="DN15" s="15"/>
+      <c r="DO15" s="15"/>
+      <c r="DP15" s="15"/>
+      <c r="DQ15" s="15"/>
+      <c r="DR15" s="15"/>
+      <c r="DS15" s="15"/>
+      <c r="DT15" s="15"/>
+      <c r="DU15" s="15"/>
+      <c r="DV15" s="15"/>
+      <c r="DW15" s="15"/>
+      <c r="DX15" s="15"/>
+      <c r="DY15" s="15"/>
+      <c r="DZ15" s="15"/>
+      <c r="EA15" s="15"/>
+      <c r="EB15" s="15"/>
+      <c r="EC15" s="15"/>
+      <c r="ED15" s="15"/>
+      <c r="EE15" s="15"/>
+      <c r="EF15" s="15"/>
+      <c r="EG15" s="15"/>
+      <c r="EH15" s="16"/>
+    </row>
+    <row r="16" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX16" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="16"/>
+      <c r="CH16" s="14"/>
+      <c r="CI16" s="15"/>
+      <c r="CJ16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
+      <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="15"/>
+      <c r="CS16" s="15"/>
+      <c r="CT16" s="15"/>
+      <c r="CU16" s="15"/>
+      <c r="CV16" s="15"/>
+      <c r="CW16" s="15"/>
+      <c r="CX16" s="15"/>
+      <c r="CY16" s="15"/>
+      <c r="CZ16" s="15"/>
+      <c r="DA16" s="15"/>
+      <c r="DB16" s="15"/>
+      <c r="DC16" s="15"/>
+      <c r="DD16" s="16"/>
+      <c r="DG16" s="14"/>
+      <c r="DH16" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="DI16" s="15"/>
+      <c r="DJ16" s="15"/>
+      <c r="DK16" s="15"/>
+      <c r="DL16" s="15"/>
+      <c r="DM16" s="15"/>
+      <c r="DN16" s="15"/>
+      <c r="DO16" s="15"/>
+      <c r="DP16" s="15"/>
+      <c r="DQ16" s="15"/>
+      <c r="DR16" s="15"/>
+      <c r="DS16" s="15"/>
+      <c r="DT16" s="15"/>
+      <c r="DU16" s="15"/>
+      <c r="DV16" s="15"/>
+      <c r="DW16" s="15"/>
+      <c r="DX16" s="15"/>
+      <c r="DY16" s="15"/>
+      <c r="DZ16" s="15"/>
+      <c r="EA16" s="15"/>
+      <c r="EB16" s="15"/>
+      <c r="EC16" s="15"/>
+      <c r="ED16" s="15"/>
+      <c r="EE16" s="15"/>
+      <c r="EF16" s="15"/>
+      <c r="EG16" s="15"/>
+      <c r="EH16" s="16"/>
+    </row>
+    <row r="17" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="15"/>
+      <c r="BX17" s="15"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="16"/>
+      <c r="CH17" s="14"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
+      <c r="CP17" s="15"/>
+      <c r="CQ17" s="15"/>
+      <c r="CR17" s="15"/>
+      <c r="CS17" s="15"/>
+      <c r="CT17" s="15"/>
+      <c r="CU17" s="15"/>
+      <c r="CV17" s="15"/>
+      <c r="CW17" s="15"/>
+      <c r="CX17" s="15"/>
+      <c r="CY17" s="15"/>
+      <c r="CZ17" s="15"/>
+      <c r="DA17" s="15"/>
+      <c r="DB17" s="15"/>
+      <c r="DC17" s="15"/>
+      <c r="DD17" s="16"/>
+      <c r="DG17" s="14"/>
+      <c r="DH17" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI17" s="15"/>
+      <c r="DJ17" s="15"/>
+      <c r="DK17" s="15"/>
+      <c r="DL17" s="15"/>
+      <c r="DM17" s="15"/>
+      <c r="DN17" s="15"/>
+      <c r="DO17" s="15"/>
+      <c r="DP17" s="15"/>
+      <c r="DQ17" s="15"/>
+      <c r="DR17" s="15"/>
+      <c r="DS17" s="15"/>
+      <c r="DT17" s="15"/>
+      <c r="DU17" s="15"/>
+      <c r="DV17" s="15"/>
+      <c r="DW17" s="15"/>
+      <c r="DX17" s="15"/>
+      <c r="DY17" s="15"/>
+      <c r="DZ17" s="15"/>
+      <c r="EA17" s="15"/>
+      <c r="EB17" s="15"/>
+      <c r="EC17" s="15"/>
+      <c r="ED17" s="15"/>
+      <c r="EE17" s="15"/>
+      <c r="EF17" s="15"/>
+      <c r="EG17" s="15"/>
+      <c r="EH17" s="16"/>
+    </row>
+    <row r="18" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="15"/>
+      <c r="BX18" s="15"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="16"/>
+      <c r="CH18" s="14"/>
+      <c r="CI18" s="15"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
+      <c r="CP18" s="15"/>
+      <c r="CQ18" s="15"/>
+      <c r="CR18" s="15"/>
+      <c r="CS18" s="15"/>
+      <c r="CT18" s="15"/>
+      <c r="CU18" s="15"/>
+      <c r="CV18" s="15"/>
+      <c r="CW18" s="15"/>
+      <c r="CX18" s="15"/>
+      <c r="CY18" s="15"/>
+      <c r="CZ18" s="15"/>
+      <c r="DA18" s="15"/>
+      <c r="DB18" s="15"/>
+      <c r="DC18" s="15"/>
+      <c r="DD18" s="16"/>
+      <c r="DG18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="DH18" s="15"/>
+      <c r="DI18" s="15"/>
+      <c r="DJ18" s="15"/>
+      <c r="DK18" s="15"/>
+      <c r="DL18" s="15"/>
+      <c r="DM18" s="15"/>
+      <c r="DN18" s="15"/>
+      <c r="DO18" s="15"/>
+      <c r="DP18" s="15"/>
+      <c r="DQ18" s="15"/>
+      <c r="DR18" s="15"/>
+      <c r="DS18" s="15"/>
+      <c r="DT18" s="15"/>
+      <c r="DU18" s="15"/>
+      <c r="DV18" s="15"/>
+      <c r="DW18" s="15"/>
+      <c r="DX18" s="15"/>
+      <c r="DY18" s="15"/>
+      <c r="DZ18" s="15"/>
+      <c r="EA18" s="15"/>
+      <c r="EB18" s="15"/>
+      <c r="EC18" s="15"/>
+      <c r="ED18" s="15"/>
+      <c r="EE18" s="15"/>
+      <c r="EF18" s="15"/>
+      <c r="EG18" s="15"/>
+      <c r="EH18" s="16"/>
+    </row>
+    <row r="19" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="X19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="16"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="15"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="15"/>
+      <c r="CO19" s="15"/>
+      <c r="CP19" s="15"/>
+      <c r="CQ19" s="15"/>
+      <c r="CR19" s="15"/>
+      <c r="CS19" s="15"/>
+      <c r="CT19" s="15"/>
+      <c r="CU19" s="15"/>
+      <c r="CV19" s="15"/>
+      <c r="CW19" s="15"/>
+      <c r="CX19" s="15"/>
+      <c r="CY19" s="15"/>
+      <c r="CZ19" s="15"/>
+      <c r="DA19" s="15"/>
+      <c r="DB19" s="15"/>
+      <c r="DC19" s="15"/>
+      <c r="DD19" s="16"/>
+      <c r="DG19" s="14"/>
+      <c r="DH19" s="15"/>
+      <c r="DI19" s="15"/>
+      <c r="DJ19" s="15"/>
+      <c r="DK19" s="15"/>
+      <c r="DL19" s="15"/>
+      <c r="DM19" s="15"/>
+      <c r="DN19" s="15"/>
+      <c r="DO19" s="15"/>
+      <c r="DP19" s="15"/>
+      <c r="DQ19" s="15"/>
+      <c r="DR19" s="15"/>
+      <c r="DS19" s="15"/>
+      <c r="DT19" s="15"/>
+      <c r="DU19" s="15"/>
+      <c r="DV19" s="15"/>
+      <c r="DW19" s="15"/>
+      <c r="DX19" s="15"/>
+      <c r="DY19" s="15"/>
+      <c r="DZ19" s="15"/>
+      <c r="EA19" s="15"/>
+      <c r="EB19" s="15"/>
+      <c r="EC19" s="15"/>
+      <c r="ED19" s="15"/>
+      <c r="EE19" s="15"/>
+      <c r="EF19" s="15"/>
+      <c r="EG19" s="15"/>
+      <c r="EH19" s="16"/>
+    </row>
+    <row r="20" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="15"/>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="16"/>
+      <c r="CH20" s="14"/>
+      <c r="CI20" s="15"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+      <c r="CM20" s="15"/>
+      <c r="CN20" s="15"/>
+      <c r="CO20" s="15"/>
+      <c r="CP20" s="15"/>
+      <c r="CQ20" s="15"/>
+      <c r="CR20" s="15"/>
+      <c r="CS20" s="15"/>
+      <c r="CT20" s="15"/>
+      <c r="CU20" s="15"/>
+      <c r="CV20" s="15"/>
+      <c r="CW20" s="15"/>
+      <c r="CX20" s="15"/>
+      <c r="CY20" s="15"/>
+      <c r="CZ20" s="15"/>
+      <c r="DA20" s="15"/>
+      <c r="DB20" s="15"/>
+      <c r="DC20" s="15"/>
+      <c r="DD20" s="16"/>
+      <c r="DG20" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="DH20" s="15"/>
+      <c r="DI20" s="15"/>
+      <c r="DJ20" s="15"/>
+      <c r="DK20" s="15"/>
+      <c r="DL20" s="15"/>
+      <c r="DM20" s="15"/>
+      <c r="DN20" s="15"/>
+      <c r="DO20" s="15"/>
+      <c r="DP20" s="15"/>
+      <c r="DQ20" s="15"/>
+      <c r="DR20" s="15"/>
+      <c r="DS20" s="15"/>
+      <c r="DT20" s="15"/>
+      <c r="DU20" s="15"/>
+      <c r="DV20" s="15"/>
+      <c r="DW20" s="15"/>
+      <c r="DX20" s="15"/>
+      <c r="DY20" s="15"/>
+      <c r="DZ20" s="15"/>
+      <c r="EA20" s="15"/>
+      <c r="EB20" s="15"/>
+      <c r="EC20" s="15"/>
+      <c r="ED20" s="15"/>
+      <c r="EE20" s="15"/>
+      <c r="EF20" s="15"/>
+      <c r="EG20" s="15"/>
+      <c r="EH20" s="16"/>
+    </row>
+    <row r="21" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX21" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="15"/>
+      <c r="BS21" s="15"/>
+      <c r="BT21" s="15"/>
+      <c r="BU21" s="15"/>
+      <c r="BV21" s="15"/>
+      <c r="BW21" s="15"/>
+      <c r="BX21" s="15"/>
+      <c r="BY21" s="15"/>
+      <c r="BZ21" s="15"/>
+      <c r="CA21" s="15"/>
+      <c r="CB21" s="15"/>
+      <c r="CC21" s="15"/>
+      <c r="CD21" s="16"/>
+      <c r="CH21" s="14"/>
+      <c r="CI21" s="15"/>
+      <c r="CJ21" s="15"/>
+      <c r="CK21" s="15"/>
+      <c r="CL21" s="15"/>
+      <c r="CM21" s="15"/>
+      <c r="CN21" s="15"/>
+      <c r="CO21" s="15"/>
+      <c r="CP21" s="15"/>
+      <c r="CQ21" s="15"/>
+      <c r="CR21" s="15"/>
+      <c r="CS21" s="15"/>
+      <c r="CT21" s="15"/>
+      <c r="CU21" s="15"/>
+      <c r="CV21" s="15"/>
+      <c r="CW21" s="15"/>
+      <c r="CX21" s="15"/>
+      <c r="CY21" s="15"/>
+      <c r="CZ21" s="15"/>
+      <c r="DA21" s="15"/>
+      <c r="DB21" s="15"/>
+      <c r="DC21" s="15"/>
+      <c r="DD21" s="16"/>
+      <c r="DG21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="DH21" s="15"/>
+      <c r="DI21" s="15"/>
+      <c r="DJ21" s="15"/>
+      <c r="DK21" s="15"/>
+      <c r="DL21" s="15"/>
+      <c r="DM21" s="15"/>
+      <c r="DN21" s="15"/>
+      <c r="DO21" s="15"/>
+      <c r="DP21" s="15"/>
+      <c r="DQ21" s="15"/>
+      <c r="DR21" s="15"/>
+      <c r="DS21" s="15"/>
+      <c r="DT21" s="15"/>
+      <c r="DU21" s="15"/>
+      <c r="DV21" s="15"/>
+      <c r="DW21" s="15"/>
+      <c r="DX21" s="15"/>
+      <c r="DY21" s="15"/>
+      <c r="DZ21" s="15"/>
+      <c r="EA21" s="15"/>
+      <c r="EB21" s="15"/>
+      <c r="EC21" s="15"/>
+      <c r="ED21" s="15"/>
+      <c r="EE21" s="15"/>
+      <c r="EF21" s="15"/>
+      <c r="EG21" s="15"/>
+      <c r="EH21" s="16"/>
+    </row>
+    <row r="22" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="15"/>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="15"/>
+      <c r="BS22" s="15"/>
+      <c r="BT22" s="15"/>
+      <c r="BU22" s="15"/>
+      <c r="BV22" s="15"/>
+      <c r="BW22" s="15"/>
+      <c r="BX22" s="15"/>
+      <c r="BY22" s="15"/>
+      <c r="BZ22" s="15"/>
+      <c r="CA22" s="15"/>
+      <c r="CB22" s="15"/>
+      <c r="CC22" s="15"/>
+      <c r="CD22" s="16"/>
+      <c r="CH22" s="14"/>
+      <c r="CI22" s="15"/>
+      <c r="CJ22" s="15"/>
+      <c r="CK22" s="15"/>
+      <c r="CL22" s="15"/>
+      <c r="CM22" s="15"/>
+      <c r="CN22" s="15"/>
+      <c r="CO22" s="15"/>
+      <c r="CP22" s="15"/>
+      <c r="CQ22" s="15"/>
+      <c r="CR22" s="15"/>
+      <c r="CS22" s="15"/>
+      <c r="CT22" s="15"/>
+      <c r="CU22" s="15"/>
+      <c r="CV22" s="15"/>
+      <c r="CW22" s="15"/>
+      <c r="CX22" s="15"/>
+      <c r="CY22" s="15"/>
+      <c r="CZ22" s="15"/>
+      <c r="DA22" s="15"/>
+      <c r="DB22" s="15"/>
+      <c r="DC22" s="15"/>
+      <c r="DD22" s="16"/>
+      <c r="DG22" s="14"/>
+      <c r="DH22" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="DI22" s="15"/>
+      <c r="DJ22" s="15"/>
+      <c r="DK22" s="15"/>
+      <c r="DL22" s="15"/>
+      <c r="DM22" s="15"/>
+      <c r="DN22" s="15"/>
+      <c r="DO22" s="15"/>
+      <c r="DP22" s="15"/>
+      <c r="DQ22" s="15"/>
+      <c r="DR22" s="15"/>
+      <c r="DS22" s="15"/>
+      <c r="DT22" s="15"/>
+      <c r="DU22" s="15"/>
+      <c r="DV22" s="15"/>
+      <c r="DW22" s="15"/>
+      <c r="DX22" s="15"/>
+      <c r="DY22" s="15"/>
+      <c r="DZ22" s="15"/>
+      <c r="EA22" s="15"/>
+      <c r="EB22" s="15"/>
+      <c r="EC22" s="15"/>
+      <c r="ED22" s="15"/>
+      <c r="EE22" s="15"/>
+      <c r="EF22" s="15"/>
+      <c r="EG22" s="15"/>
+      <c r="EH22" s="16"/>
+    </row>
+    <row r="23" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="15"/>
+      <c r="BS23" s="15"/>
+      <c r="BT23" s="15"/>
+      <c r="BU23" s="15"/>
+      <c r="BV23" s="15"/>
+      <c r="BW23" s="15"/>
+      <c r="BX23" s="15"/>
+      <c r="BY23" s="15"/>
+      <c r="BZ23" s="15"/>
+      <c r="CA23" s="15"/>
+      <c r="CB23" s="15"/>
+      <c r="CC23" s="15"/>
+      <c r="CD23" s="16"/>
+      <c r="CH23" s="14"/>
+      <c r="CI23" s="15"/>
+      <c r="CJ23" s="15"/>
+      <c r="CK23" s="15"/>
+      <c r="CL23" s="15"/>
+      <c r="CM23" s="15"/>
+      <c r="CN23" s="15"/>
+      <c r="CO23" s="15"/>
+      <c r="CP23" s="15"/>
+      <c r="CQ23" s="15"/>
+      <c r="CR23" s="15"/>
+      <c r="CS23" s="15"/>
+      <c r="CT23" s="15"/>
+      <c r="CU23" s="15"/>
+      <c r="CV23" s="15"/>
+      <c r="CW23" s="15"/>
+      <c r="CX23" s="15"/>
+      <c r="CY23" s="15"/>
+      <c r="CZ23" s="15"/>
+      <c r="DA23" s="15"/>
+      <c r="DB23" s="15"/>
+      <c r="DC23" s="15"/>
+      <c r="DD23" s="16"/>
+      <c r="DG23" s="14"/>
+      <c r="DH23" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI23" s="15"/>
+      <c r="DJ23" s="15"/>
+      <c r="DK23" s="15"/>
+      <c r="DL23" s="15"/>
+      <c r="DM23" s="15"/>
+      <c r="DN23" s="15"/>
+      <c r="DO23" s="15"/>
+      <c r="DP23" s="15"/>
+      <c r="DQ23" s="15"/>
+      <c r="DR23" s="15"/>
+      <c r="DS23" s="15"/>
+      <c r="DT23" s="15"/>
+      <c r="DU23" s="15"/>
+      <c r="DV23" s="15"/>
+      <c r="DW23" s="15"/>
+      <c r="DX23" s="15"/>
+      <c r="DY23" s="15"/>
+      <c r="DZ23" s="15"/>
+      <c r="EA23" s="15"/>
+      <c r="EB23" s="15"/>
+      <c r="EC23" s="15"/>
+      <c r="ED23" s="15"/>
+      <c r="EE23" s="15"/>
+      <c r="EF23" s="15"/>
+      <c r="EG23" s="15"/>
+      <c r="EH23" s="16"/>
+    </row>
+    <row r="24" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+      <c r="BU24" s="15"/>
+      <c r="BV24" s="15"/>
+      <c r="BW24" s="15"/>
+      <c r="BX24" s="15"/>
+      <c r="BY24" s="15"/>
+      <c r="BZ24" s="15"/>
+      <c r="CA24" s="15"/>
+      <c r="CB24" s="15"/>
+      <c r="CC24" s="15"/>
+      <c r="CD24" s="16"/>
+      <c r="CH24" s="14"/>
+      <c r="CI24" s="15"/>
+      <c r="CJ24" s="15"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="15"/>
+      <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
+      <c r="CO24" s="15"/>
+      <c r="CP24" s="15"/>
+      <c r="CQ24" s="15"/>
+      <c r="CR24" s="15"/>
+      <c r="CS24" s="15"/>
+      <c r="CT24" s="15"/>
+      <c r="CU24" s="15"/>
+      <c r="CV24" s="15"/>
+      <c r="CW24" s="15"/>
+      <c r="CX24" s="15"/>
+      <c r="CY24" s="15"/>
+      <c r="CZ24" s="15"/>
+      <c r="DA24" s="15"/>
+      <c r="DB24" s="15"/>
+      <c r="DC24" s="15"/>
+      <c r="DD24" s="16"/>
+      <c r="DG24" s="14"/>
+      <c r="DH24" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="DI24" s="15"/>
+      <c r="DJ24" s="15"/>
+      <c r="DK24" s="15"/>
+      <c r="DL24" s="15"/>
+      <c r="DM24" s="15"/>
+      <c r="DN24" s="15"/>
+      <c r="DO24" s="15"/>
+      <c r="DP24" s="15"/>
+      <c r="DQ24" s="15"/>
+      <c r="DR24" s="15"/>
+      <c r="DS24" s="15"/>
+      <c r="DT24" s="15"/>
+      <c r="DU24" s="15"/>
+      <c r="DV24" s="15"/>
+      <c r="DW24" s="15"/>
+      <c r="DX24" s="15"/>
+      <c r="DY24" s="15"/>
+      <c r="DZ24" s="15"/>
+      <c r="EA24" s="15"/>
+      <c r="EB24" s="15"/>
+      <c r="EC24" s="15"/>
+      <c r="ED24" s="15"/>
+      <c r="EE24" s="15"/>
+      <c r="EF24" s="15"/>
+      <c r="EG24" s="15"/>
+      <c r="EH24" s="16"/>
+    </row>
+    <row r="25" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX25" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="15"/>
+      <c r="BS25" s="15"/>
+      <c r="BT25" s="15"/>
+      <c r="BU25" s="15"/>
+      <c r="BV25" s="15"/>
+      <c r="BW25" s="15"/>
+      <c r="BX25" s="15"/>
+      <c r="BY25" s="15"/>
+      <c r="BZ25" s="15"/>
+      <c r="CA25" s="15"/>
+      <c r="CB25" s="15"/>
+      <c r="CC25" s="15"/>
+      <c r="CD25" s="16"/>
+      <c r="CH25" s="14"/>
+      <c r="CI25" s="15"/>
+      <c r="CJ25" s="15"/>
+      <c r="CK25" s="15"/>
+      <c r="CL25" s="15"/>
+      <c r="CM25" s="15"/>
+      <c r="CN25" s="15"/>
+      <c r="CO25" s="15"/>
+      <c r="CP25" s="15"/>
+      <c r="CQ25" s="15"/>
+      <c r="CR25" s="15"/>
+      <c r="CS25" s="15"/>
+      <c r="CT25" s="15"/>
+      <c r="CU25" s="15"/>
+      <c r="CV25" s="15"/>
+      <c r="CW25" s="15"/>
+      <c r="CX25" s="15"/>
+      <c r="CY25" s="15"/>
+      <c r="CZ25" s="15"/>
+      <c r="DA25" s="15"/>
+      <c r="DB25" s="15"/>
+      <c r="DC25" s="15"/>
+      <c r="DD25" s="16"/>
+      <c r="DG25" s="14"/>
+      <c r="DH25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI25" s="15"/>
+      <c r="DJ25" s="15"/>
+      <c r="DK25" s="15"/>
+      <c r="DL25" s="15"/>
+      <c r="DM25" s="15"/>
+      <c r="DN25" s="15"/>
+      <c r="DO25" s="15"/>
+      <c r="DP25" s="15"/>
+      <c r="DQ25" s="15"/>
+      <c r="DR25" s="15"/>
+      <c r="DS25" s="15"/>
+      <c r="DT25" s="15"/>
+      <c r="DU25" s="15"/>
+      <c r="DV25" s="15"/>
+      <c r="DW25" s="15"/>
+      <c r="DX25" s="15"/>
+      <c r="DY25" s="15"/>
+      <c r="DZ25" s="15"/>
+      <c r="EA25" s="15"/>
+      <c r="EB25" s="15"/>
+      <c r="EC25" s="15"/>
+      <c r="ED25" s="15"/>
+      <c r="EE25" s="15"/>
+      <c r="EF25" s="15"/>
+      <c r="EG25" s="15"/>
+      <c r="EH25" s="16"/>
+    </row>
+    <row r="26" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+      <c r="BU26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BX26" s="15"/>
+      <c r="BY26" s="15"/>
+      <c r="BZ26" s="15"/>
+      <c r="CA26" s="15"/>
+      <c r="CB26" s="15"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="16"/>
+      <c r="CH26" s="14"/>
+      <c r="CI26" s="15"/>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="15"/>
+      <c r="CO26" s="15"/>
+      <c r="CP26" s="15"/>
+      <c r="CQ26" s="15"/>
+      <c r="CR26" s="15"/>
+      <c r="CS26" s="15"/>
+      <c r="CT26" s="15"/>
+      <c r="CU26" s="15"/>
+      <c r="CV26" s="15"/>
+      <c r="CW26" s="15"/>
+      <c r="CX26" s="15"/>
+      <c r="CY26" s="15"/>
+      <c r="CZ26" s="15"/>
+      <c r="DA26" s="15"/>
+      <c r="DB26" s="15"/>
+      <c r="DC26" s="15"/>
+      <c r="DD26" s="16"/>
+      <c r="DG26" s="14"/>
+      <c r="DH26" s="15"/>
+      <c r="DI26" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="DJ26" s="15"/>
+      <c r="DK26" s="15"/>
+      <c r="DL26" s="15"/>
+      <c r="DM26" s="15"/>
+      <c r="DN26" s="15"/>
+      <c r="DO26" s="15"/>
+      <c r="DP26" s="15"/>
+      <c r="DQ26" s="15"/>
+      <c r="DR26" s="15"/>
+      <c r="DS26" s="15"/>
+      <c r="DT26" s="15"/>
+      <c r="DU26" s="15"/>
+      <c r="DV26" s="15"/>
+      <c r="DW26" s="15"/>
+      <c r="DX26" s="15"/>
+      <c r="DY26" s="15"/>
+      <c r="DZ26" s="15"/>
+      <c r="EA26" s="15"/>
+      <c r="EB26" s="15"/>
+      <c r="EC26" s="15"/>
+      <c r="ED26" s="15"/>
+      <c r="EE26" s="15"/>
+      <c r="EF26" s="15"/>
+      <c r="EG26" s="15"/>
+      <c r="EH26" s="16"/>
+    </row>
+    <row r="27" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="15"/>
+      <c r="CC27" s="15"/>
+      <c r="CD27" s="16"/>
+      <c r="CH27" s="14"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="15"/>
+      <c r="CK27" s="15"/>
+      <c r="CL27" s="15"/>
+      <c r="CM27" s="15"/>
+      <c r="CN27" s="15"/>
+      <c r="CO27" s="15"/>
+      <c r="CP27" s="15"/>
+      <c r="CQ27" s="15"/>
+      <c r="CR27" s="15"/>
+      <c r="CS27" s="15"/>
+      <c r="CT27" s="15"/>
+      <c r="CU27" s="15"/>
+      <c r="CV27" s="15"/>
+      <c r="CW27" s="15"/>
+      <c r="CX27" s="15"/>
+      <c r="CY27" s="15"/>
+      <c r="CZ27" s="15"/>
+      <c r="DA27" s="15"/>
+      <c r="DB27" s="15"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="16"/>
+      <c r="DG27" s="14"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="DJ27" s="15"/>
+      <c r="DK27" s="15"/>
+      <c r="DL27" s="15"/>
+      <c r="DM27" s="15"/>
+      <c r="DN27" s="15"/>
+      <c r="DO27" s="15"/>
+      <c r="DP27" s="15"/>
+      <c r="DQ27" s="15"/>
+      <c r="DR27" s="15"/>
+      <c r="DS27" s="15"/>
+      <c r="DT27" s="15"/>
+      <c r="DU27" s="15"/>
+      <c r="DV27" s="15"/>
+      <c r="DW27" s="15"/>
+      <c r="DX27" s="15"/>
+      <c r="DY27" s="15"/>
+      <c r="DZ27" s="15"/>
+      <c r="EA27" s="15"/>
+      <c r="EB27" s="15"/>
+      <c r="EC27" s="15"/>
+      <c r="ED27" s="15"/>
+      <c r="EE27" s="15"/>
+      <c r="EF27" s="15"/>
+      <c r="EG27" s="15"/>
+      <c r="EH27" s="16"/>
+    </row>
+    <row r="28" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="15"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="15"/>
+      <c r="BV28" s="15"/>
+      <c r="BW28" s="15"/>
+      <c r="BX28" s="15"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="15"/>
+      <c r="CA28" s="15"/>
+      <c r="CB28" s="15"/>
+      <c r="CC28" s="15"/>
+      <c r="CD28" s="16"/>
+      <c r="CH28" s="14"/>
+      <c r="CI28" s="15"/>
+      <c r="CJ28" s="15"/>
+      <c r="CK28" s="15"/>
+      <c r="CL28" s="15"/>
+      <c r="CM28" s="15"/>
+      <c r="CN28" s="15"/>
+      <c r="CO28" s="15"/>
+      <c r="CP28" s="15"/>
+      <c r="CQ28" s="15"/>
+      <c r="CR28" s="15"/>
+      <c r="CS28" s="15"/>
+      <c r="CT28" s="15"/>
+      <c r="CU28" s="15"/>
+      <c r="CV28" s="15"/>
+      <c r="CW28" s="15"/>
+      <c r="CX28" s="15"/>
+      <c r="CY28" s="15"/>
+      <c r="CZ28" s="15"/>
+      <c r="DA28" s="15"/>
+      <c r="DB28" s="15"/>
+      <c r="DC28" s="15"/>
+      <c r="DD28" s="16"/>
+      <c r="DG28" s="14"/>
+      <c r="DH28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="DI28" s="15"/>
+      <c r="DJ28" s="15"/>
+      <c r="DK28" s="15"/>
+      <c r="DL28" s="15"/>
+      <c r="DM28" s="15"/>
+      <c r="DN28" s="15"/>
+      <c r="DO28" s="15"/>
+      <c r="DP28" s="15"/>
+      <c r="DQ28" s="15"/>
+      <c r="DR28" s="15"/>
+      <c r="DS28" s="15"/>
+      <c r="DT28" s="15"/>
+      <c r="DU28" s="15"/>
+      <c r="DV28" s="15"/>
+      <c r="DW28" s="15"/>
+      <c r="DX28" s="15"/>
+      <c r="DY28" s="15"/>
+      <c r="DZ28" s="15"/>
+      <c r="EA28" s="15"/>
+      <c r="EB28" s="15"/>
+      <c r="EC28" s="15"/>
+      <c r="ED28" s="15"/>
+      <c r="EE28" s="15"/>
+      <c r="EF28" s="15"/>
+      <c r="EG28" s="15"/>
+      <c r="EH28" s="16"/>
+    </row>
+    <row r="29" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX29" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="16"/>
+      <c r="CH29" s="14"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="15"/>
+      <c r="CM29" s="15"/>
+      <c r="CN29" s="15"/>
+      <c r="CO29" s="15"/>
+      <c r="CP29" s="15"/>
+      <c r="CQ29" s="15"/>
+      <c r="CR29" s="15"/>
+      <c r="CS29" s="15"/>
+      <c r="CT29" s="15"/>
+      <c r="CU29" s="15"/>
+      <c r="CV29" s="15"/>
+      <c r="CW29" s="15"/>
+      <c r="CX29" s="15"/>
+      <c r="CY29" s="15"/>
+      <c r="CZ29" s="15"/>
+      <c r="DA29" s="15"/>
+      <c r="DB29" s="15"/>
+      <c r="DC29" s="15"/>
+      <c r="DD29" s="16"/>
+      <c r="DG29" s="14"/>
+      <c r="DH29" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="DI29" s="15"/>
+      <c r="DJ29" s="15"/>
+      <c r="DK29" s="15"/>
+      <c r="DL29" s="15"/>
+      <c r="DM29" s="15"/>
+      <c r="DN29" s="15"/>
+      <c r="DO29" s="15"/>
+      <c r="DP29" s="15"/>
+      <c r="DQ29" s="15"/>
+      <c r="DR29" s="15"/>
+      <c r="DS29" s="15"/>
+      <c r="DT29" s="15"/>
+      <c r="DU29" s="15"/>
+      <c r="DV29" s="15"/>
+      <c r="DW29" s="15"/>
+      <c r="DX29" s="15"/>
+      <c r="DY29" s="15"/>
+      <c r="DZ29" s="15"/>
+      <c r="EA29" s="15"/>
+      <c r="EB29" s="15"/>
+      <c r="EC29" s="15"/>
+      <c r="ED29" s="15"/>
+      <c r="EE29" s="15"/>
+      <c r="EF29" s="15"/>
+      <c r="EG29" s="15"/>
+      <c r="EH29" s="16"/>
+    </row>
+    <row r="30" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="16"/>
+      <c r="CH30" s="14"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
+      <c r="CP30" s="15"/>
+      <c r="CQ30" s="15"/>
+      <c r="CR30" s="15"/>
+      <c r="CS30" s="15"/>
+      <c r="CT30" s="15"/>
+      <c r="CU30" s="15"/>
+      <c r="CV30" s="15"/>
+      <c r="CW30" s="15"/>
+      <c r="CX30" s="15"/>
+      <c r="CY30" s="15"/>
+      <c r="CZ30" s="15"/>
+      <c r="DA30" s="15"/>
+      <c r="DB30" s="15"/>
+      <c r="DC30" s="15"/>
+      <c r="DD30" s="16"/>
+      <c r="DG30" s="14"/>
+      <c r="DH30" s="15"/>
+      <c r="DI30" s="15"/>
+      <c r="DJ30" s="15"/>
+      <c r="DK30" s="15"/>
+      <c r="DL30" s="15"/>
+      <c r="DM30" s="15"/>
+      <c r="DN30" s="15"/>
+      <c r="DO30" s="15"/>
+      <c r="DP30" s="15"/>
+      <c r="DQ30" s="15"/>
+      <c r="DR30" s="15"/>
+      <c r="DS30" s="15"/>
+      <c r="DT30" s="15"/>
+      <c r="DU30" s="15"/>
+      <c r="DV30" s="15"/>
+      <c r="DW30" s="15"/>
+      <c r="DX30" s="15"/>
+      <c r="DY30" s="15"/>
+      <c r="DZ30" s="15"/>
+      <c r="EA30" s="15"/>
+      <c r="EB30" s="15"/>
+      <c r="EC30" s="15"/>
+      <c r="ED30" s="15"/>
+      <c r="EE30" s="15"/>
+      <c r="EF30" s="15"/>
+      <c r="EG30" s="15"/>
+      <c r="EH30" s="16"/>
+    </row>
+    <row r="31" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="16"/>
+      <c r="CH31" s="14"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="15"/>
+      <c r="CO31" s="15"/>
+      <c r="CP31" s="15"/>
+      <c r="CQ31" s="15"/>
+      <c r="CR31" s="15"/>
+      <c r="CS31" s="15"/>
+      <c r="CT31" s="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15"/>
+      <c r="CW31" s="15"/>
+      <c r="CX31" s="15"/>
+      <c r="CY31" s="15"/>
+      <c r="CZ31" s="15"/>
+      <c r="DA31" s="15"/>
+      <c r="DB31" s="15"/>
+      <c r="DC31" s="15"/>
+      <c r="DD31" s="16"/>
+      <c r="DG31" s="14"/>
+      <c r="DH31" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="DI31" s="15"/>
+      <c r="DJ31" s="15"/>
+      <c r="DK31" s="15"/>
+      <c r="DL31" s="15"/>
+      <c r="DM31" s="15"/>
+      <c r="DN31" s="15"/>
+      <c r="DO31" s="15"/>
+      <c r="DP31" s="15"/>
+      <c r="DQ31" s="15"/>
+      <c r="DR31" s="15"/>
+      <c r="DS31" s="15"/>
+      <c r="DT31" s="15"/>
+      <c r="DU31" s="15"/>
+      <c r="DV31" s="15"/>
+      <c r="DW31" s="15"/>
+      <c r="DX31" s="15"/>
+      <c r="DY31" s="15"/>
+      <c r="DZ31" s="15"/>
+      <c r="EA31" s="15"/>
+      <c r="EB31" s="15"/>
+      <c r="EC31" s="15"/>
+      <c r="ED31" s="15"/>
+      <c r="EE31" s="15"/>
+      <c r="EF31" s="15"/>
+      <c r="EG31" s="15"/>
+      <c r="EH31" s="16"/>
+    </row>
+    <row r="32" spans="24:138" x14ac:dyDescent="0.15">
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="16"/>
+      <c r="CH32" s="14"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="15"/>
+      <c r="CO32" s="15"/>
+      <c r="CP32" s="15"/>
+      <c r="CQ32" s="15"/>
+      <c r="CR32" s="15"/>
+      <c r="CS32" s="15"/>
+      <c r="CT32" s="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CV32" s="15"/>
+      <c r="CW32" s="15"/>
+      <c r="CX32" s="15"/>
+      <c r="CY32" s="15"/>
+      <c r="CZ32" s="15"/>
+      <c r="DA32" s="15"/>
+      <c r="DB32" s="15"/>
+      <c r="DC32" s="15"/>
+      <c r="DD32" s="16"/>
+      <c r="DG32" s="14"/>
+      <c r="DH32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI32" s="15"/>
+      <c r="DJ32" s="15"/>
+      <c r="DK32" s="15"/>
+      <c r="DL32" s="15"/>
+      <c r="DM32" s="15"/>
+      <c r="DN32" s="15"/>
+      <c r="DO32" s="15"/>
+      <c r="DP32" s="15"/>
+      <c r="DQ32" s="15"/>
+      <c r="DR32" s="15"/>
+      <c r="DS32" s="15"/>
+      <c r="DT32" s="15"/>
+      <c r="DU32" s="15"/>
+      <c r="DV32" s="15"/>
+      <c r="DW32" s="15"/>
+      <c r="DX32" s="15"/>
+      <c r="DY32" s="15"/>
+      <c r="DZ32" s="15"/>
+      <c r="EA32" s="15"/>
+      <c r="EB32" s="15"/>
+      <c r="EC32" s="15"/>
+      <c r="ED32" s="15"/>
+      <c r="EE32" s="15"/>
+      <c r="EF32" s="15"/>
+      <c r="EG32" s="15"/>
+      <c r="EH32" s="16"/>
+    </row>
+    <row r="33" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX33" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="15"/>
+      <c r="BX33" s="15"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="15"/>
+      <c r="CA33" s="15"/>
+      <c r="CB33" s="15"/>
+      <c r="CC33" s="15"/>
+      <c r="CD33" s="16"/>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="15"/>
+      <c r="CJ33" s="15"/>
+      <c r="CK33" s="15"/>
+      <c r="CL33" s="15"/>
+      <c r="CM33" s="15"/>
+      <c r="CN33" s="15"/>
+      <c r="CO33" s="15"/>
+      <c r="CP33" s="15"/>
+      <c r="CQ33" s="15"/>
+      <c r="CR33" s="15"/>
+      <c r="CS33" s="15"/>
+      <c r="CT33" s="15"/>
+      <c r="CU33" s="15"/>
+      <c r="CV33" s="15"/>
+      <c r="CW33" s="15"/>
+      <c r="CX33" s="15"/>
+      <c r="CY33" s="15"/>
+      <c r="CZ33" s="15"/>
+      <c r="DA33" s="15"/>
+      <c r="DB33" s="15"/>
+      <c r="DC33" s="15"/>
+      <c r="DD33" s="16"/>
+      <c r="DG33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="DH33" s="15"/>
+      <c r="DI33" s="15"/>
+      <c r="DJ33" s="15"/>
+      <c r="DK33" s="15"/>
+      <c r="DL33" s="15"/>
+      <c r="DM33" s="15"/>
+      <c r="DN33" s="15"/>
+      <c r="DO33" s="15"/>
+      <c r="DP33" s="15"/>
+      <c r="DQ33" s="15"/>
+      <c r="DR33" s="15"/>
+      <c r="DS33" s="15"/>
+      <c r="DT33" s="15"/>
+      <c r="DU33" s="15"/>
+      <c r="DV33" s="15"/>
+      <c r="DW33" s="15"/>
+      <c r="DX33" s="15"/>
+      <c r="DY33" s="15"/>
+      <c r="DZ33" s="15"/>
+      <c r="EA33" s="15"/>
+      <c r="EB33" s="15"/>
+      <c r="EC33" s="15"/>
+      <c r="ED33" s="15"/>
+      <c r="EE33" s="15"/>
+      <c r="EF33" s="15"/>
+      <c r="EG33" s="15"/>
+      <c r="EH33" s="16"/>
+    </row>
+    <row r="34" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="15"/>
+      <c r="BW34" s="15"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="15"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="16"/>
+      <c r="CH34" s="14"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CM34" s="15"/>
+      <c r="CN34" s="15"/>
+      <c r="CO34" s="15"/>
+      <c r="CP34" s="15"/>
+      <c r="CQ34" s="15"/>
+      <c r="CR34" s="15"/>
+      <c r="CS34" s="15"/>
+      <c r="CT34" s="15"/>
+      <c r="CU34" s="15"/>
+      <c r="CV34" s="15"/>
+      <c r="CW34" s="15"/>
+      <c r="CX34" s="15"/>
+      <c r="CY34" s="15"/>
+      <c r="CZ34" s="15"/>
+      <c r="DA34" s="15"/>
+      <c r="DB34" s="15"/>
+      <c r="DC34" s="15"/>
+      <c r="DD34" s="16"/>
+      <c r="DG34" s="14"/>
+      <c r="DH34" s="15"/>
+      <c r="DI34" s="15"/>
+      <c r="DJ34" s="15"/>
+      <c r="DK34" s="15"/>
+      <c r="DL34" s="15"/>
+      <c r="DM34" s="15"/>
+      <c r="DN34" s="15"/>
+      <c r="DO34" s="15"/>
+      <c r="DP34" s="15"/>
+      <c r="DQ34" s="15"/>
+      <c r="DR34" s="15"/>
+      <c r="DS34" s="15"/>
+      <c r="DT34" s="15"/>
+      <c r="DU34" s="15"/>
+      <c r="DV34" s="15"/>
+      <c r="DW34" s="15"/>
+      <c r="DX34" s="15"/>
+      <c r="DY34" s="15"/>
+      <c r="DZ34" s="15"/>
+      <c r="EA34" s="15"/>
+      <c r="EB34" s="15"/>
+      <c r="EC34" s="15"/>
+      <c r="ED34" s="15"/>
+      <c r="EE34" s="15"/>
+      <c r="EF34" s="15"/>
+      <c r="EG34" s="15"/>
+      <c r="EH34" s="16"/>
+    </row>
+    <row r="35" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX35" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="15"/>
+      <c r="BS35" s="15"/>
+      <c r="BT35" s="15"/>
+      <c r="BU35" s="15"/>
+      <c r="BV35" s="15"/>
+      <c r="BW35" s="15"/>
+      <c r="BX35" s="15"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="15"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="16"/>
+      <c r="CH35" s="14"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="15"/>
+      <c r="CK35" s="15"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
+      <c r="CN35" s="15"/>
+      <c r="CO35" s="15"/>
+      <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
+      <c r="CR35" s="15"/>
+      <c r="CS35" s="15"/>
+      <c r="CT35" s="15"/>
+      <c r="CU35" s="15"/>
+      <c r="CV35" s="15"/>
+      <c r="CW35" s="15"/>
+      <c r="CX35" s="15"/>
+      <c r="CY35" s="15"/>
+      <c r="CZ35" s="15"/>
+      <c r="DA35" s="15"/>
+      <c r="DB35" s="15"/>
+      <c r="DC35" s="15"/>
+      <c r="DD35" s="16"/>
+      <c r="DG35" s="14"/>
+      <c r="DH35" s="15"/>
+      <c r="DI35" s="15"/>
+      <c r="DJ35" s="15"/>
+      <c r="DK35" s="15"/>
+      <c r="DL35" s="15"/>
+      <c r="DM35" s="15"/>
+      <c r="DN35" s="15"/>
+      <c r="DO35" s="15"/>
+      <c r="DP35" s="15"/>
+      <c r="DQ35" s="15"/>
+      <c r="DR35" s="15"/>
+      <c r="DS35" s="15"/>
+      <c r="DT35" s="15"/>
+      <c r="DU35" s="15"/>
+      <c r="DV35" s="15"/>
+      <c r="DW35" s="15"/>
+      <c r="DX35" s="15"/>
+      <c r="DY35" s="15"/>
+      <c r="DZ35" s="15"/>
+      <c r="EA35" s="15"/>
+      <c r="EB35" s="15"/>
+      <c r="EC35" s="15"/>
+      <c r="ED35" s="15"/>
+      <c r="EE35" s="15"/>
+      <c r="EF35" s="15"/>
+      <c r="EG35" s="15"/>
+      <c r="EH35" s="16"/>
+    </row>
+    <row r="36" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="15"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="16"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="15"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="15"/>
+      <c r="CM36" s="15"/>
+      <c r="CN36" s="15"/>
+      <c r="CO36" s="15"/>
+      <c r="CP36" s="15"/>
+      <c r="CQ36" s="15"/>
+      <c r="CR36" s="15"/>
+      <c r="CS36" s="15"/>
+      <c r="CT36" s="15"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="15"/>
+      <c r="CW36" s="15"/>
+      <c r="CX36" s="15"/>
+      <c r="CY36" s="15"/>
+      <c r="CZ36" s="15"/>
+      <c r="DA36" s="15"/>
+      <c r="DB36" s="15"/>
+      <c r="DC36" s="15"/>
+      <c r="DD36" s="16"/>
+      <c r="DG36" s="14"/>
+      <c r="DH36" s="15"/>
+      <c r="DI36" s="15"/>
+      <c r="DJ36" s="15"/>
+      <c r="DK36" s="15"/>
+      <c r="DL36" s="15"/>
+      <c r="DM36" s="15"/>
+      <c r="DN36" s="15"/>
+      <c r="DO36" s="15"/>
+      <c r="DP36" s="15"/>
+      <c r="DQ36" s="15"/>
+      <c r="DR36" s="15"/>
+      <c r="DS36" s="15"/>
+      <c r="DT36" s="15"/>
+      <c r="DU36" s="15"/>
+      <c r="DV36" s="15"/>
+      <c r="DW36" s="15"/>
+      <c r="DX36" s="15"/>
+      <c r="DY36" s="15"/>
+      <c r="DZ36" s="15"/>
+      <c r="EA36" s="15"/>
+      <c r="EB36" s="15"/>
+      <c r="EC36" s="15"/>
+      <c r="ED36" s="15"/>
+      <c r="EE36" s="15"/>
+      <c r="EF36" s="15"/>
+      <c r="EG36" s="15"/>
+      <c r="EH36" s="16"/>
+    </row>
+    <row r="37" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX37" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="15"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="15"/>
+      <c r="BV37" s="15"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="15"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="16"/>
+      <c r="CH37" s="14"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="15"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
+      <c r="CN37" s="15"/>
+      <c r="CO37" s="15"/>
+      <c r="CP37" s="15"/>
+      <c r="CQ37" s="15"/>
+      <c r="CR37" s="15"/>
+      <c r="CS37" s="15"/>
+      <c r="CT37" s="15"/>
+      <c r="CU37" s="15"/>
+      <c r="CV37" s="15"/>
+      <c r="CW37" s="15"/>
+      <c r="CX37" s="15"/>
+      <c r="CY37" s="15"/>
+      <c r="CZ37" s="15"/>
+      <c r="DA37" s="15"/>
+      <c r="DB37" s="15"/>
+      <c r="DC37" s="15"/>
+      <c r="DD37" s="16"/>
+      <c r="DG37" s="14"/>
+      <c r="DH37" s="15"/>
+      <c r="DI37" s="15"/>
+      <c r="DJ37" s="15"/>
+      <c r="DK37" s="15"/>
+      <c r="DL37" s="15"/>
+      <c r="DM37" s="15"/>
+      <c r="DN37" s="15"/>
+      <c r="DO37" s="15"/>
+      <c r="DP37" s="15"/>
+      <c r="DQ37" s="15"/>
+      <c r="DR37" s="15"/>
+      <c r="DS37" s="15"/>
+      <c r="DT37" s="15"/>
+      <c r="DU37" s="15"/>
+      <c r="DV37" s="15"/>
+      <c r="DW37" s="15"/>
+      <c r="DX37" s="15"/>
+      <c r="DY37" s="15"/>
+      <c r="DZ37" s="15"/>
+      <c r="EA37" s="15"/>
+      <c r="EB37" s="15"/>
+      <c r="EC37" s="15"/>
+      <c r="ED37" s="15"/>
+      <c r="EE37" s="15"/>
+      <c r="EF37" s="15"/>
+      <c r="EG37" s="15"/>
+      <c r="EH37" s="16"/>
+    </row>
+    <row r="38" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX38" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY38" s="15"/>
+      <c r="AZ38" s="15"/>
+      <c r="BA38" s="15"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="15"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="15"/>
+      <c r="BV38" s="15"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="15"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="15"/>
+      <c r="CA38" s="15"/>
+      <c r="CB38" s="15"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="16"/>
+      <c r="CH38" s="14"/>
+      <c r="CI38" s="15"/>
+      <c r="CJ38" s="15"/>
+      <c r="CK38" s="15"/>
+      <c r="CL38" s="15"/>
+      <c r="CM38" s="15"/>
+      <c r="CN38" s="15"/>
+      <c r="CO38" s="15"/>
+      <c r="CP38" s="15"/>
+      <c r="CQ38" s="15"/>
+      <c r="CR38" s="15"/>
+      <c r="CS38" s="15"/>
+      <c r="CT38" s="15"/>
+      <c r="CU38" s="15"/>
+      <c r="CV38" s="15"/>
+      <c r="CW38" s="15"/>
+      <c r="CX38" s="15"/>
+      <c r="CY38" s="15"/>
+      <c r="CZ38" s="15"/>
+      <c r="DA38" s="15"/>
+      <c r="DB38" s="15"/>
+      <c r="DC38" s="15"/>
+      <c r="DD38" s="16"/>
+      <c r="DG38" s="14"/>
+      <c r="DH38" s="15"/>
+      <c r="DI38" s="15"/>
+      <c r="DJ38" s="15"/>
+      <c r="DK38" s="15"/>
+      <c r="DL38" s="15"/>
+      <c r="DM38" s="15"/>
+      <c r="DN38" s="15"/>
+      <c r="DO38" s="15"/>
+      <c r="DP38" s="15"/>
+      <c r="DQ38" s="15"/>
+      <c r="DR38" s="15"/>
+      <c r="DS38" s="15"/>
+      <c r="DT38" s="15"/>
+      <c r="DU38" s="15"/>
+      <c r="DV38" s="15"/>
+      <c r="DW38" s="15"/>
+      <c r="DX38" s="15"/>
+      <c r="DY38" s="15"/>
+      <c r="DZ38" s="15"/>
+      <c r="EA38" s="15"/>
+      <c r="EB38" s="15"/>
+      <c r="EC38" s="15"/>
+      <c r="ED38" s="15"/>
+      <c r="EE38" s="15"/>
+      <c r="EF38" s="15"/>
+      <c r="EG38" s="15"/>
+      <c r="EH38" s="16"/>
+    </row>
+    <row r="39" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX39" s="14"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="15"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="15"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="15"/>
+      <c r="BV39" s="15"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="15"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="15"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="16"/>
+      <c r="CH39" s="14"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="15"/>
+      <c r="CK39" s="15"/>
+      <c r="CL39" s="15"/>
+      <c r="CM39" s="15"/>
+      <c r="CN39" s="15"/>
+      <c r="CO39" s="15"/>
+      <c r="CP39" s="15"/>
+      <c r="CQ39" s="15"/>
+      <c r="CR39" s="15"/>
+      <c r="CS39" s="15"/>
+      <c r="CT39" s="15"/>
+      <c r="CU39" s="15"/>
+      <c r="CV39" s="15"/>
+      <c r="CW39" s="15"/>
+      <c r="CX39" s="15"/>
+      <c r="CY39" s="15"/>
+      <c r="CZ39" s="15"/>
+      <c r="DA39" s="15"/>
+      <c r="DB39" s="15"/>
+      <c r="DC39" s="15"/>
+      <c r="DD39" s="16"/>
+      <c r="DG39" s="14"/>
+      <c r="DH39" s="15"/>
+      <c r="DI39" s="15"/>
+      <c r="DJ39" s="15"/>
+      <c r="DK39" s="15"/>
+      <c r="DL39" s="15"/>
+      <c r="DM39" s="15"/>
+      <c r="DN39" s="15"/>
+      <c r="DO39" s="15"/>
+      <c r="DP39" s="15"/>
+      <c r="DQ39" s="15"/>
+      <c r="DR39" s="15"/>
+      <c r="DS39" s="15"/>
+      <c r="DT39" s="15"/>
+      <c r="DU39" s="15"/>
+      <c r="DV39" s="15"/>
+      <c r="DW39" s="15"/>
+      <c r="DX39" s="15"/>
+      <c r="DY39" s="15"/>
+      <c r="DZ39" s="15"/>
+      <c r="EA39" s="15"/>
+      <c r="EB39" s="15"/>
+      <c r="EC39" s="15"/>
+      <c r="ED39" s="15"/>
+      <c r="EE39" s="15"/>
+      <c r="EF39" s="15"/>
+      <c r="EG39" s="15"/>
+      <c r="EH39" s="16"/>
+    </row>
+    <row r="40" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="X40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="15"/>
+      <c r="BV40" s="15"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="16"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="15"/>
+      <c r="CP40" s="15"/>
+      <c r="CQ40" s="15"/>
+      <c r="CR40" s="15"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="15"/>
+      <c r="CU40" s="15"/>
+      <c r="CV40" s="15"/>
+      <c r="CW40" s="15"/>
+      <c r="CX40" s="15"/>
+      <c r="CY40" s="15"/>
+      <c r="CZ40" s="15"/>
+      <c r="DA40" s="15"/>
+      <c r="DB40" s="15"/>
+      <c r="DC40" s="15"/>
+      <c r="DD40" s="16"/>
+      <c r="DG40" s="14"/>
+      <c r="DH40" s="15"/>
+      <c r="DI40" s="15"/>
+      <c r="DJ40" s="15"/>
+      <c r="DK40" s="15"/>
+      <c r="DL40" s="15"/>
+      <c r="DM40" s="15"/>
+      <c r="DN40" s="15"/>
+      <c r="DO40" s="15"/>
+      <c r="DP40" s="15"/>
+      <c r="DQ40" s="15"/>
+      <c r="DR40" s="15"/>
+      <c r="DS40" s="15"/>
+      <c r="DT40" s="15"/>
+      <c r="DU40" s="15"/>
+      <c r="DV40" s="15"/>
+      <c r="DW40" s="15"/>
+      <c r="DX40" s="15"/>
+      <c r="DY40" s="15"/>
+      <c r="DZ40" s="15"/>
+      <c r="EA40" s="15"/>
+      <c r="EB40" s="15"/>
+      <c r="EC40" s="15"/>
+      <c r="ED40" s="15"/>
+      <c r="EE40" s="15"/>
+      <c r="EF40" s="15"/>
+      <c r="EG40" s="15"/>
+      <c r="EH40" s="16"/>
+    </row>
+    <row r="41" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
+      <c r="CA41" s="15"/>
+      <c r="CB41" s="15"/>
+      <c r="CC41" s="15"/>
+      <c r="CD41" s="16"/>
+      <c r="CH41" s="14"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="15"/>
+      <c r="CK41" s="15"/>
+      <c r="CL41" s="15"/>
+      <c r="CM41" s="15"/>
+      <c r="CN41" s="15"/>
+      <c r="CO41" s="15"/>
+      <c r="CP41" s="15"/>
+      <c r="CQ41" s="15"/>
+      <c r="CR41" s="15"/>
+      <c r="CS41" s="15"/>
+      <c r="CT41" s="15"/>
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="15"/>
+      <c r="CW41" s="15"/>
+      <c r="CX41" s="15"/>
+      <c r="CY41" s="15"/>
+      <c r="CZ41" s="15"/>
+      <c r="DA41" s="15"/>
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="16"/>
+      <c r="DG41" s="14"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="15"/>
+      <c r="DJ41" s="15"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="15"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="15"/>
+      <c r="DO41" s="15"/>
+      <c r="DP41" s="15"/>
+      <c r="DQ41" s="15"/>
+      <c r="DR41" s="15"/>
+      <c r="DS41" s="15"/>
+      <c r="DT41" s="15"/>
+      <c r="DU41" s="15"/>
+      <c r="DV41" s="15"/>
+      <c r="DW41" s="15"/>
+      <c r="DX41" s="15"/>
+      <c r="DY41" s="15"/>
+      <c r="DZ41" s="15"/>
+      <c r="EA41" s="15"/>
+      <c r="EB41" s="15"/>
+      <c r="EC41" s="15"/>
+      <c r="ED41" s="15"/>
+      <c r="EE41" s="15"/>
+      <c r="EF41" s="15"/>
+      <c r="EG41" s="15"/>
+      <c r="EH41" s="16"/>
+    </row>
+    <row r="42" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="15"/>
+      <c r="BV42" s="15"/>
+      <c r="BW42" s="15"/>
+      <c r="BX42" s="15"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
+      <c r="CA42" s="15"/>
+      <c r="CB42" s="15"/>
+      <c r="CC42" s="15"/>
+      <c r="CD42" s="16"/>
+      <c r="CH42" s="14"/>
+      <c r="CI42" s="15"/>
+      <c r="CJ42" s="15"/>
+      <c r="CK42" s="15"/>
+      <c r="CL42" s="15"/>
+      <c r="CM42" s="15"/>
+      <c r="CN42" s="15"/>
+      <c r="CO42" s="15"/>
+      <c r="CP42" s="15"/>
+      <c r="CQ42" s="15"/>
+      <c r="CR42" s="15"/>
+      <c r="CS42" s="15"/>
+      <c r="CT42" s="15"/>
+      <c r="CU42" s="15"/>
+      <c r="CV42" s="15"/>
+      <c r="CW42" s="15"/>
+      <c r="CX42" s="15"/>
+      <c r="CY42" s="15"/>
+      <c r="CZ42" s="15"/>
+      <c r="DA42" s="15"/>
+      <c r="DB42" s="15"/>
+      <c r="DC42" s="15"/>
+      <c r="DD42" s="16"/>
+      <c r="DG42" s="14"/>
+      <c r="DH42" s="15"/>
+      <c r="DI42" s="15"/>
+      <c r="DJ42" s="15"/>
+      <c r="DK42" s="15"/>
+      <c r="DL42" s="15"/>
+      <c r="DM42" s="15"/>
+      <c r="DN42" s="15"/>
+      <c r="DO42" s="15"/>
+      <c r="DP42" s="15"/>
+      <c r="DQ42" s="15"/>
+      <c r="DR42" s="15"/>
+      <c r="DS42" s="15"/>
+      <c r="DT42" s="15"/>
+      <c r="DU42" s="15"/>
+      <c r="DV42" s="15"/>
+      <c r="DW42" s="15"/>
+      <c r="DX42" s="15"/>
+      <c r="DY42" s="15"/>
+      <c r="DZ42" s="15"/>
+      <c r="EA42" s="15"/>
+      <c r="EB42" s="15"/>
+      <c r="EC42" s="15"/>
+      <c r="ED42" s="15"/>
+      <c r="EE42" s="15"/>
+      <c r="EF42" s="15"/>
+      <c r="EG42" s="15"/>
+      <c r="EH42" s="16"/>
+    </row>
+    <row r="43" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="15"/>
+      <c r="BT43" s="15"/>
+      <c r="BU43" s="15"/>
+      <c r="BV43" s="15"/>
+      <c r="BW43" s="15"/>
+      <c r="BX43" s="15"/>
+      <c r="BY43" s="15"/>
+      <c r="BZ43" s="15"/>
+      <c r="CA43" s="15"/>
+      <c r="CB43" s="15"/>
+      <c r="CC43" s="15"/>
+      <c r="CD43" s="16"/>
+      <c r="CH43" s="14"/>
+      <c r="CI43" s="15"/>
+      <c r="CJ43" s="15"/>
+      <c r="CK43" s="15"/>
+      <c r="CL43" s="15"/>
+      <c r="CM43" s="15"/>
+      <c r="CN43" s="15"/>
+      <c r="CO43" s="15"/>
+      <c r="CP43" s="15"/>
+      <c r="CQ43" s="15"/>
+      <c r="CR43" s="15"/>
+      <c r="CS43" s="15"/>
+      <c r="CT43" s="15"/>
+      <c r="CU43" s="15"/>
+      <c r="CV43" s="15"/>
+      <c r="CW43" s="15"/>
+      <c r="CX43" s="15"/>
+      <c r="CY43" s="15"/>
+      <c r="CZ43" s="15"/>
+      <c r="DA43" s="15"/>
+      <c r="DB43" s="15"/>
+      <c r="DC43" s="15"/>
+      <c r="DD43" s="16"/>
+      <c r="DG43" s="14"/>
+      <c r="DH43" s="15"/>
+      <c r="DI43" s="15"/>
+      <c r="DJ43" s="15"/>
+      <c r="DK43" s="15"/>
+      <c r="DL43" s="15"/>
+      <c r="DM43" s="15"/>
+      <c r="DN43" s="15"/>
+      <c r="DO43" s="15"/>
+      <c r="DP43" s="15"/>
+      <c r="DQ43" s="15"/>
+      <c r="DR43" s="15"/>
+      <c r="DS43" s="15"/>
+      <c r="DT43" s="15"/>
+      <c r="DU43" s="15"/>
+      <c r="DV43" s="15"/>
+      <c r="DW43" s="15"/>
+      <c r="DX43" s="15"/>
+      <c r="DY43" s="15"/>
+      <c r="DZ43" s="15"/>
+      <c r="EA43" s="15"/>
+      <c r="EB43" s="15"/>
+      <c r="EC43" s="15"/>
+      <c r="ED43" s="15"/>
+      <c r="EE43" s="15"/>
+      <c r="EF43" s="15"/>
+      <c r="EG43" s="15"/>
+      <c r="EH43" s="16"/>
+    </row>
+    <row r="44" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX44" s="14"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="15"/>
+      <c r="BV44" s="15"/>
+      <c r="BW44" s="15"/>
+      <c r="BX44" s="15"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="15"/>
+      <c r="CA44" s="15"/>
+      <c r="CB44" s="15"/>
+      <c r="CC44" s="15"/>
+      <c r="CD44" s="16"/>
+      <c r="CH44" s="14"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="15"/>
+      <c r="CK44" s="15"/>
+      <c r="CL44" s="15"/>
+      <c r="CM44" s="15"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="15"/>
+      <c r="CP44" s="15"/>
+      <c r="CQ44" s="15"/>
+      <c r="CR44" s="15"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="15"/>
+      <c r="CU44" s="15"/>
+      <c r="CV44" s="15"/>
+      <c r="CW44" s="15"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="15"/>
+      <c r="CZ44" s="15"/>
+      <c r="DA44" s="15"/>
+      <c r="DB44" s="15"/>
+      <c r="DC44" s="15"/>
+      <c r="DD44" s="16"/>
+      <c r="DG44" s="14"/>
+      <c r="DH44" s="15"/>
+      <c r="DI44" s="15"/>
+      <c r="DJ44" s="15"/>
+      <c r="DK44" s="15"/>
+      <c r="DL44" s="15"/>
+      <c r="DM44" s="15"/>
+      <c r="DN44" s="15"/>
+      <c r="DO44" s="15"/>
+      <c r="DP44" s="15"/>
+      <c r="DQ44" s="15"/>
+      <c r="DR44" s="15"/>
+      <c r="DS44" s="15"/>
+      <c r="DT44" s="15"/>
+      <c r="DU44" s="15"/>
+      <c r="DV44" s="15"/>
+      <c r="DW44" s="15"/>
+      <c r="DX44" s="15"/>
+      <c r="DY44" s="15"/>
+      <c r="DZ44" s="15"/>
+      <c r="EA44" s="15"/>
+      <c r="EB44" s="15"/>
+      <c r="EC44" s="15"/>
+      <c r="ED44" s="15"/>
+      <c r="EE44" s="15"/>
+      <c r="EF44" s="15"/>
+      <c r="EG44" s="15"/>
+      <c r="EH44" s="16"/>
+    </row>
+    <row r="45" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX45" s="14"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="15"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="15"/>
+      <c r="BV45" s="15"/>
+      <c r="BW45" s="15"/>
+      <c r="BX45" s="15"/>
+      <c r="BY45" s="15"/>
+      <c r="BZ45" s="15"/>
+      <c r="CA45" s="15"/>
+      <c r="CB45" s="15"/>
+      <c r="CC45" s="15"/>
+      <c r="CD45" s="16"/>
+      <c r="CH45" s="14"/>
+      <c r="CI45" s="15"/>
+      <c r="CJ45" s="15"/>
+      <c r="CK45" s="15"/>
+      <c r="CL45" s="15"/>
+      <c r="CM45" s="15"/>
+      <c r="CN45" s="15"/>
+      <c r="CO45" s="15"/>
+      <c r="CP45" s="15"/>
+      <c r="CQ45" s="15"/>
+      <c r="CR45" s="15"/>
+      <c r="CS45" s="15"/>
+      <c r="CT45" s="15"/>
+      <c r="CU45" s="15"/>
+      <c r="CV45" s="15"/>
+      <c r="CW45" s="15"/>
+      <c r="CX45" s="15"/>
+      <c r="CY45" s="15"/>
+      <c r="CZ45" s="15"/>
+      <c r="DA45" s="15"/>
+      <c r="DB45" s="15"/>
+      <c r="DC45" s="15"/>
+      <c r="DD45" s="16"/>
+      <c r="DG45" s="14"/>
+      <c r="DH45" s="15"/>
+      <c r="DI45" s="15"/>
+      <c r="DJ45" s="15"/>
+      <c r="DK45" s="15"/>
+      <c r="DL45" s="15"/>
+      <c r="DM45" s="15"/>
+      <c r="DN45" s="15"/>
+      <c r="DO45" s="15"/>
+      <c r="DP45" s="15"/>
+      <c r="DQ45" s="15"/>
+      <c r="DR45" s="15"/>
+      <c r="DS45" s="15"/>
+      <c r="DT45" s="15"/>
+      <c r="DU45" s="15"/>
+      <c r="DV45" s="15"/>
+      <c r="DW45" s="15"/>
+      <c r="DX45" s="15"/>
+      <c r="DY45" s="15"/>
+      <c r="DZ45" s="15"/>
+      <c r="EA45" s="15"/>
+      <c r="EB45" s="15"/>
+      <c r="EC45" s="15"/>
+      <c r="ED45" s="15"/>
+      <c r="EE45" s="15"/>
+      <c r="EF45" s="15"/>
+      <c r="EG45" s="15"/>
+      <c r="EH45" s="16"/>
+    </row>
+    <row r="46" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="AX46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="15"/>
+      <c r="BV46" s="15"/>
+      <c r="BW46" s="15"/>
+      <c r="BX46" s="15"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="15"/>
+      <c r="CA46" s="15"/>
+      <c r="CB46" s="15"/>
+      <c r="CC46" s="15"/>
+      <c r="CD46" s="16"/>
+      <c r="CH46" s="14"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="15"/>
+      <c r="CK46" s="15"/>
+      <c r="CL46" s="15"/>
+      <c r="CM46" s="15"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="15"/>
+      <c r="CP46" s="15"/>
+      <c r="CQ46" s="15"/>
+      <c r="CR46" s="15"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="15"/>
+      <c r="CU46" s="15"/>
+      <c r="CV46" s="15"/>
+      <c r="CW46" s="15"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="15"/>
+      <c r="CZ46" s="15"/>
+      <c r="DA46" s="15"/>
+      <c r="DB46" s="15"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="16"/>
+      <c r="DG46" s="14"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="15"/>
+      <c r="DJ46" s="15"/>
+      <c r="DK46" s="15"/>
+      <c r="DL46" s="15"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="15"/>
+      <c r="DO46" s="15"/>
+      <c r="DP46" s="15"/>
+      <c r="DQ46" s="15"/>
+      <c r="DR46" s="15"/>
+      <c r="DS46" s="15"/>
+      <c r="DT46" s="15"/>
+      <c r="DU46" s="15"/>
+      <c r="DV46" s="15"/>
+      <c r="DW46" s="15"/>
+      <c r="DX46" s="15"/>
+      <c r="DY46" s="15"/>
+      <c r="DZ46" s="15"/>
+      <c r="EA46" s="15"/>
+      <c r="EB46" s="15"/>
+      <c r="EC46" s="15"/>
+      <c r="ED46" s="15"/>
+      <c r="EE46" s="15"/>
+      <c r="EF46" s="15"/>
+      <c r="EG46" s="15"/>
+      <c r="EH46" s="16"/>
+    </row>
+    <row r="47" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="15"/>
+      <c r="AZ47" s="15"/>
+      <c r="BA47" s="15"/>
+      <c r="BB47" s="15"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="15"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="15"/>
+      <c r="BM47" s="15"/>
+      <c r="BN47" s="15"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="15"/>
+      <c r="BS47" s="15"/>
+      <c r="BT47" s="15"/>
+      <c r="BU47" s="15"/>
+      <c r="BV47" s="15"/>
+      <c r="BW47" s="15"/>
+      <c r="BX47" s="15"/>
+      <c r="BY47" s="15"/>
+      <c r="BZ47" s="15"/>
+      <c r="CA47" s="15"/>
+      <c r="CB47" s="15"/>
+      <c r="CC47" s="15"/>
+      <c r="CD47" s="16"/>
+      <c r="CH47" s="14"/>
+      <c r="CI47" s="15"/>
+      <c r="CJ47" s="15"/>
+      <c r="CK47" s="15"/>
+      <c r="CL47" s="15"/>
+      <c r="CM47" s="15"/>
+      <c r="CN47" s="15"/>
+      <c r="CO47" s="15"/>
+      <c r="CP47" s="15"/>
+      <c r="CQ47" s="15"/>
+      <c r="CR47" s="15"/>
+      <c r="CS47" s="15"/>
+      <c r="CT47" s="15"/>
+      <c r="CU47" s="15"/>
+      <c r="CV47" s="15"/>
+      <c r="CW47" s="15"/>
+      <c r="CX47" s="15"/>
+      <c r="CY47" s="15"/>
+      <c r="CZ47" s="15"/>
+      <c r="DA47" s="15"/>
+      <c r="DB47" s="15"/>
+      <c r="DC47" s="15"/>
+      <c r="DD47" s="16"/>
+      <c r="DG47" s="14"/>
+      <c r="DH47" s="15"/>
+      <c r="DI47" s="15"/>
+      <c r="DJ47" s="15"/>
+      <c r="DK47" s="15"/>
+      <c r="DL47" s="15"/>
+      <c r="DM47" s="15"/>
+      <c r="DN47" s="15"/>
+      <c r="DO47" s="15"/>
+      <c r="DP47" s="15"/>
+      <c r="DQ47" s="15"/>
+      <c r="DR47" s="15"/>
+      <c r="DS47" s="15"/>
+      <c r="DT47" s="15"/>
+      <c r="DU47" s="15"/>
+      <c r="DV47" s="15"/>
+      <c r="DW47" s="15"/>
+      <c r="DX47" s="15"/>
+      <c r="DY47" s="15"/>
+      <c r="DZ47" s="15"/>
+      <c r="EA47" s="15"/>
+      <c r="EB47" s="15"/>
+      <c r="EC47" s="15"/>
+      <c r="ED47" s="15"/>
+      <c r="EE47" s="15"/>
+      <c r="EF47" s="15"/>
+      <c r="EG47" s="15"/>
+      <c r="EH47" s="16"/>
+    </row>
+    <row r="48" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX48" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="15"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="15"/>
+      <c r="BL48" s="15"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="15"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="15"/>
+      <c r="BT48" s="15"/>
+      <c r="BU48" s="15"/>
+      <c r="BV48" s="15"/>
+      <c r="BW48" s="15"/>
+      <c r="BX48" s="15"/>
+      <c r="BY48" s="15"/>
+      <c r="BZ48" s="15"/>
+      <c r="CA48" s="15"/>
+      <c r="CB48" s="15"/>
+      <c r="CC48" s="15"/>
+      <c r="CD48" s="16"/>
+      <c r="CH48" s="14"/>
+      <c r="CI48" s="15"/>
+      <c r="CJ48" s="15"/>
+      <c r="CK48" s="15"/>
+      <c r="CL48" s="15"/>
+      <c r="CM48" s="15"/>
+      <c r="CN48" s="15"/>
+      <c r="CO48" s="15"/>
+      <c r="CP48" s="15"/>
+      <c r="CQ48" s="15"/>
+      <c r="CR48" s="15"/>
+      <c r="CS48" s="15"/>
+      <c r="CT48" s="15"/>
+      <c r="CU48" s="15"/>
+      <c r="CV48" s="15"/>
+      <c r="CW48" s="15"/>
+      <c r="CX48" s="15"/>
+      <c r="CY48" s="15"/>
+      <c r="CZ48" s="15"/>
+      <c r="DA48" s="15"/>
+      <c r="DB48" s="15"/>
+      <c r="DC48" s="15"/>
+      <c r="DD48" s="16"/>
+      <c r="DG48" s="14"/>
+      <c r="DH48" s="15"/>
+      <c r="DI48" s="15"/>
+      <c r="DJ48" s="15"/>
+      <c r="DK48" s="15"/>
+      <c r="DL48" s="15"/>
+      <c r="DM48" s="15"/>
+      <c r="DN48" s="15"/>
+      <c r="DO48" s="15"/>
+      <c r="DP48" s="15"/>
+      <c r="DQ48" s="15"/>
+      <c r="DR48" s="15"/>
+      <c r="DS48" s="15"/>
+      <c r="DT48" s="15"/>
+      <c r="DU48" s="15"/>
+      <c r="DV48" s="15"/>
+      <c r="DW48" s="15"/>
+      <c r="DX48" s="15"/>
+      <c r="DY48" s="15"/>
+      <c r="DZ48" s="15"/>
+      <c r="EA48" s="15"/>
+      <c r="EB48" s="15"/>
+      <c r="EC48" s="15"/>
+      <c r="ED48" s="15"/>
+      <c r="EE48" s="15"/>
+      <c r="EF48" s="15"/>
+      <c r="EG48" s="15"/>
+      <c r="EH48" s="16"/>
+    </row>
+    <row r="49" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX49" s="14"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="15"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="15"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="15"/>
+      <c r="BT49" s="15"/>
+      <c r="BU49" s="15"/>
+      <c r="BV49" s="15"/>
+      <c r="BW49" s="15"/>
+      <c r="BX49" s="15"/>
+      <c r="BY49" s="15"/>
+      <c r="BZ49" s="15"/>
+      <c r="CA49" s="15"/>
+      <c r="CB49" s="15"/>
+      <c r="CC49" s="15"/>
+      <c r="CD49" s="16"/>
+      <c r="CH49" s="14"/>
+      <c r="CI49" s="15"/>
+      <c r="CJ49" s="15"/>
+      <c r="CK49" s="15"/>
+      <c r="CL49" s="15"/>
+      <c r="CM49" s="15"/>
+      <c r="CN49" s="15"/>
+      <c r="CO49" s="15"/>
+      <c r="CP49" s="15"/>
+      <c r="CQ49" s="15"/>
+      <c r="CR49" s="15"/>
+      <c r="CS49" s="15"/>
+      <c r="CT49" s="15"/>
+      <c r="CU49" s="15"/>
+      <c r="CV49" s="15"/>
+      <c r="CW49" s="15"/>
+      <c r="CX49" s="15"/>
+      <c r="CY49" s="15"/>
+      <c r="CZ49" s="15"/>
+      <c r="DA49" s="15"/>
+      <c r="DB49" s="15"/>
+      <c r="DC49" s="15"/>
+      <c r="DD49" s="16"/>
+      <c r="DG49" s="14"/>
+      <c r="DH49" s="15"/>
+      <c r="DI49" s="15"/>
+      <c r="DJ49" s="15"/>
+      <c r="DK49" s="15"/>
+      <c r="DL49" s="15"/>
+      <c r="DM49" s="15"/>
+      <c r="DN49" s="15"/>
+      <c r="DO49" s="15"/>
+      <c r="DP49" s="15"/>
+      <c r="DQ49" s="15"/>
+      <c r="DR49" s="15"/>
+      <c r="DS49" s="15"/>
+      <c r="DT49" s="15"/>
+      <c r="DU49" s="15"/>
+      <c r="DV49" s="15"/>
+      <c r="DW49" s="15"/>
+      <c r="DX49" s="15"/>
+      <c r="DY49" s="15"/>
+      <c r="DZ49" s="15"/>
+      <c r="EA49" s="15"/>
+      <c r="EB49" s="15"/>
+      <c r="EC49" s="15"/>
+      <c r="ED49" s="15"/>
+      <c r="EE49" s="15"/>
+      <c r="EF49" s="15"/>
+      <c r="EG49" s="15"/>
+      <c r="EH49" s="16"/>
+    </row>
+    <row r="50" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX50" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY50" s="15"/>
+      <c r="AZ50" s="15"/>
+      <c r="BA50" s="15"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="15"/>
+      <c r="BO50" s="15"/>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="15"/>
+      <c r="BS50" s="15"/>
+      <c r="BT50" s="15"/>
+      <c r="BU50" s="15"/>
+      <c r="BV50" s="15"/>
+      <c r="BW50" s="15"/>
+      <c r="BX50" s="15"/>
+      <c r="BY50" s="15"/>
+      <c r="BZ50" s="15"/>
+      <c r="CA50" s="15"/>
+      <c r="CB50" s="15"/>
+      <c r="CC50" s="15"/>
+      <c r="CD50" s="16"/>
+      <c r="CH50" s="14"/>
+      <c r="CI50" s="15"/>
+      <c r="CJ50" s="15"/>
+      <c r="CK50" s="15"/>
+      <c r="CL50" s="15"/>
+      <c r="CM50" s="15"/>
+      <c r="CN50" s="15"/>
+      <c r="CO50" s="15"/>
+      <c r="CP50" s="15"/>
+      <c r="CQ50" s="15"/>
+      <c r="CR50" s="15"/>
+      <c r="CS50" s="15"/>
+      <c r="CT50" s="15"/>
+      <c r="CU50" s="15"/>
+      <c r="CV50" s="15"/>
+      <c r="CW50" s="15"/>
+      <c r="CX50" s="15"/>
+      <c r="CY50" s="15"/>
+      <c r="CZ50" s="15"/>
+      <c r="DA50" s="15"/>
+      <c r="DB50" s="15"/>
+      <c r="DC50" s="15"/>
+      <c r="DD50" s="16"/>
+      <c r="DG50" s="14"/>
+      <c r="DH50" s="15"/>
+      <c r="DI50" s="15"/>
+      <c r="DJ50" s="15"/>
+      <c r="DK50" s="15"/>
+      <c r="DL50" s="15"/>
+      <c r="DM50" s="15"/>
+      <c r="DN50" s="15"/>
+      <c r="DO50" s="15"/>
+      <c r="DP50" s="15"/>
+      <c r="DQ50" s="15"/>
+      <c r="DR50" s="15"/>
+      <c r="DS50" s="15"/>
+      <c r="DT50" s="15"/>
+      <c r="DU50" s="15"/>
+      <c r="DV50" s="15"/>
+      <c r="DW50" s="15"/>
+      <c r="DX50" s="15"/>
+      <c r="DY50" s="15"/>
+      <c r="DZ50" s="15"/>
+      <c r="EA50" s="15"/>
+      <c r="EB50" s="15"/>
+      <c r="EC50" s="15"/>
+      <c r="ED50" s="15"/>
+      <c r="EE50" s="15"/>
+      <c r="EF50" s="15"/>
+      <c r="EG50" s="15"/>
+      <c r="EH50" s="16"/>
+    </row>
+    <row r="51" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="15"/>
+      <c r="AZ51" s="15"/>
+      <c r="BA51" s="15"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="15"/>
+      <c r="BF51" s="15"/>
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="15"/>
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15"/>
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="15"/>
+      <c r="BV51" s="15"/>
+      <c r="BW51" s="15"/>
+      <c r="BX51" s="15"/>
+      <c r="BY51" s="15"/>
+      <c r="BZ51" s="15"/>
+      <c r="CA51" s="15"/>
+      <c r="CB51" s="15"/>
+      <c r="CC51" s="15"/>
+      <c r="CD51" s="16"/>
+      <c r="CH51" s="14"/>
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="15"/>
+      <c r="CM51" s="15"/>
+      <c r="CN51" s="15"/>
+      <c r="CO51" s="15"/>
+      <c r="CP51" s="15"/>
+      <c r="CQ51" s="15"/>
+      <c r="CR51" s="15"/>
+      <c r="CS51" s="15"/>
+      <c r="CT51" s="15"/>
+      <c r="CU51" s="15"/>
+      <c r="CV51" s="15"/>
+      <c r="CW51" s="15"/>
+      <c r="CX51" s="15"/>
+      <c r="CY51" s="15"/>
+      <c r="CZ51" s="15"/>
+      <c r="DA51" s="15"/>
+      <c r="DB51" s="15"/>
+      <c r="DC51" s="15"/>
+      <c r="DD51" s="16"/>
+      <c r="DG51" s="14"/>
+      <c r="DH51" s="15"/>
+      <c r="DI51" s="15"/>
+      <c r="DJ51" s="15"/>
+      <c r="DK51" s="15"/>
+      <c r="DL51" s="15"/>
+      <c r="DM51" s="15"/>
+      <c r="DN51" s="15"/>
+      <c r="DO51" s="15"/>
+      <c r="DP51" s="15"/>
+      <c r="DQ51" s="15"/>
+      <c r="DR51" s="15"/>
+      <c r="DS51" s="15"/>
+      <c r="DT51" s="15"/>
+      <c r="DU51" s="15"/>
+      <c r="DV51" s="15"/>
+      <c r="DW51" s="15"/>
+      <c r="DX51" s="15"/>
+      <c r="DY51" s="15"/>
+      <c r="DZ51" s="15"/>
+      <c r="EA51" s="15"/>
+      <c r="EB51" s="15"/>
+      <c r="EC51" s="15"/>
+      <c r="ED51" s="15"/>
+      <c r="EE51" s="15"/>
+      <c r="EF51" s="15"/>
+      <c r="EG51" s="15"/>
+      <c r="EH51" s="16"/>
+    </row>
+    <row r="52" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="15"/>
+      <c r="AZ52" s="15"/>
+      <c r="BA52" s="15"/>
+      <c r="BB52" s="15"/>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="15"/>
+      <c r="BF52" s="15"/>
+      <c r="BG52" s="15"/>
+      <c r="BH52" s="15"/>
+      <c r="BI52" s="15"/>
+      <c r="BJ52" s="15"/>
+      <c r="BK52" s="15"/>
+      <c r="BL52" s="15"/>
+      <c r="BM52" s="15"/>
+      <c r="BN52" s="15"/>
+      <c r="BO52" s="15"/>
+      <c r="BP52" s="15"/>
+      <c r="BQ52" s="15"/>
+      <c r="BR52" s="15"/>
+      <c r="BS52" s="15"/>
+      <c r="BT52" s="15"/>
+      <c r="BU52" s="15"/>
+      <c r="BV52" s="15"/>
+      <c r="BW52" s="15"/>
+      <c r="BX52" s="15"/>
+      <c r="BY52" s="15"/>
+      <c r="BZ52" s="15"/>
+      <c r="CA52" s="15"/>
+      <c r="CB52" s="15"/>
+      <c r="CC52" s="15"/>
+      <c r="CD52" s="16"/>
+      <c r="CH52" s="14"/>
+      <c r="CI52" s="15"/>
+      <c r="CJ52" s="15"/>
+      <c r="CK52" s="15"/>
+      <c r="CL52" s="15"/>
+      <c r="CM52" s="15"/>
+      <c r="CN52" s="15"/>
+      <c r="CO52" s="15"/>
+      <c r="CP52" s="15"/>
+      <c r="CQ52" s="15"/>
+      <c r="CR52" s="15"/>
+      <c r="CS52" s="15"/>
+      <c r="CT52" s="15"/>
+      <c r="CU52" s="15"/>
+      <c r="CV52" s="15"/>
+      <c r="CW52" s="15"/>
+      <c r="CX52" s="15"/>
+      <c r="CY52" s="15"/>
+      <c r="CZ52" s="15"/>
+      <c r="DA52" s="15"/>
+      <c r="DB52" s="15"/>
+      <c r="DC52" s="15"/>
+      <c r="DD52" s="16"/>
+      <c r="DG52" s="14"/>
+      <c r="DH52" s="15"/>
+      <c r="DI52" s="15"/>
+      <c r="DJ52" s="15"/>
+      <c r="DK52" s="15"/>
+      <c r="DL52" s="15"/>
+      <c r="DM52" s="15"/>
+      <c r="DN52" s="15"/>
+      <c r="DO52" s="15"/>
+      <c r="DP52" s="15"/>
+      <c r="DQ52" s="15"/>
+      <c r="DR52" s="15"/>
+      <c r="DS52" s="15"/>
+      <c r="DT52" s="15"/>
+      <c r="DU52" s="15"/>
+      <c r="DV52" s="15"/>
+      <c r="DW52" s="15"/>
+      <c r="DX52" s="15"/>
+      <c r="DY52" s="15"/>
+      <c r="DZ52" s="15"/>
+      <c r="EA52" s="15"/>
+      <c r="EB52" s="15"/>
+      <c r="EC52" s="15"/>
+      <c r="ED52" s="15"/>
+      <c r="EE52" s="15"/>
+      <c r="EF52" s="15"/>
+      <c r="EG52" s="15"/>
+      <c r="EH52" s="16"/>
+    </row>
+    <row r="53" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX53" s="14"/>
+      <c r="AY53" s="15"/>
+      <c r="AZ53" s="15"/>
+      <c r="BA53" s="15"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="15"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="15"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="15"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="15"/>
+      <c r="BL53" s="15"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="15"/>
+      <c r="BO53" s="15"/>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="15"/>
+      <c r="BT53" s="15"/>
+      <c r="BU53" s="15"/>
+      <c r="BV53" s="15"/>
+      <c r="BW53" s="15"/>
+      <c r="BX53" s="15"/>
+      <c r="BY53" s="15"/>
+      <c r="BZ53" s="15"/>
+      <c r="CA53" s="15"/>
+      <c r="CB53" s="15"/>
+      <c r="CC53" s="15"/>
+      <c r="CD53" s="16"/>
+      <c r="CH53" s="14"/>
+      <c r="CI53" s="15"/>
+      <c r="CJ53" s="15"/>
+      <c r="CK53" s="15"/>
+      <c r="CL53" s="15"/>
+      <c r="CM53" s="15"/>
+      <c r="CN53" s="15"/>
+      <c r="CO53" s="15"/>
+      <c r="CP53" s="15"/>
+      <c r="CQ53" s="15"/>
+      <c r="CR53" s="15"/>
+      <c r="CS53" s="15"/>
+      <c r="CT53" s="15"/>
+      <c r="CU53" s="15"/>
+      <c r="CV53" s="15"/>
+      <c r="CW53" s="15"/>
+      <c r="CX53" s="15"/>
+      <c r="CY53" s="15"/>
+      <c r="CZ53" s="15"/>
+      <c r="DA53" s="15"/>
+      <c r="DB53" s="15"/>
+      <c r="DC53" s="15"/>
+      <c r="DD53" s="16"/>
+      <c r="DG53" s="14"/>
+      <c r="DH53" s="15"/>
+      <c r="DI53" s="15"/>
+      <c r="DJ53" s="15"/>
+      <c r="DK53" s="15"/>
+      <c r="DL53" s="15"/>
+      <c r="DM53" s="15"/>
+      <c r="DN53" s="15"/>
+      <c r="DO53" s="15"/>
+      <c r="DP53" s="15"/>
+      <c r="DQ53" s="15"/>
+      <c r="DR53" s="15"/>
+      <c r="DS53" s="15"/>
+      <c r="DT53" s="15"/>
+      <c r="DU53" s="15"/>
+      <c r="DV53" s="15"/>
+      <c r="DW53" s="15"/>
+      <c r="DX53" s="15"/>
+      <c r="DY53" s="15"/>
+      <c r="DZ53" s="15"/>
+      <c r="EA53" s="15"/>
+      <c r="EB53" s="15"/>
+      <c r="EC53" s="15"/>
+      <c r="ED53" s="15"/>
+      <c r="EE53" s="15"/>
+      <c r="EF53" s="15"/>
+      <c r="EG53" s="15"/>
+      <c r="EH53" s="16"/>
+    </row>
+    <row r="54" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX54" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="15"/>
+      <c r="BO54" s="15"/>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="15"/>
+      <c r="BS54" s="15"/>
+      <c r="BT54" s="15"/>
+      <c r="BU54" s="15"/>
+      <c r="BV54" s="15"/>
+      <c r="BW54" s="15"/>
+      <c r="BX54" s="15"/>
+      <c r="BY54" s="15"/>
+      <c r="BZ54" s="15"/>
+      <c r="CA54" s="15"/>
+      <c r="CB54" s="15"/>
+      <c r="CC54" s="15"/>
+      <c r="CD54" s="16"/>
+      <c r="CH54" s="14"/>
+      <c r="CI54" s="15"/>
+      <c r="CJ54" s="15"/>
+      <c r="CK54" s="15"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
+      <c r="CO54" s="15"/>
+      <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15"/>
+      <c r="CV54" s="15"/>
+      <c r="CW54" s="15"/>
+      <c r="CX54" s="15"/>
+      <c r="CY54" s="15"/>
+      <c r="CZ54" s="15"/>
+      <c r="DA54" s="15"/>
+      <c r="DB54" s="15"/>
+      <c r="DC54" s="15"/>
+      <c r="DD54" s="16"/>
+      <c r="DG54" s="14"/>
+      <c r="DH54" s="15"/>
+      <c r="DI54" s="15"/>
+      <c r="DJ54" s="15"/>
+      <c r="DK54" s="15"/>
+      <c r="DL54" s="15"/>
+      <c r="DM54" s="15"/>
+      <c r="DN54" s="15"/>
+      <c r="DO54" s="15"/>
+      <c r="DP54" s="15"/>
+      <c r="DQ54" s="15"/>
+      <c r="DR54" s="15"/>
+      <c r="DS54" s="15"/>
+      <c r="DT54" s="15"/>
+      <c r="DU54" s="15"/>
+      <c r="DV54" s="15"/>
+      <c r="DW54" s="15"/>
+      <c r="DX54" s="15"/>
+      <c r="DY54" s="15"/>
+      <c r="DZ54" s="15"/>
+      <c r="EA54" s="15"/>
+      <c r="EB54" s="15"/>
+      <c r="EC54" s="15"/>
+      <c r="ED54" s="15"/>
+      <c r="EE54" s="15"/>
+      <c r="EF54" s="15"/>
+      <c r="EG54" s="15"/>
+      <c r="EH54" s="16"/>
+    </row>
+    <row r="55" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="P55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX55" s="14"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="15"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="15"/>
+      <c r="BL55" s="15"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="15"/>
+      <c r="BO55" s="15"/>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="15"/>
+      <c r="BS55" s="15"/>
+      <c r="BT55" s="15"/>
+      <c r="BU55" s="15"/>
+      <c r="BV55" s="15"/>
+      <c r="BW55" s="15"/>
+      <c r="BX55" s="15"/>
+      <c r="BY55" s="15"/>
+      <c r="BZ55" s="15"/>
+      <c r="CA55" s="15"/>
+      <c r="CB55" s="15"/>
+      <c r="CC55" s="15"/>
+      <c r="CD55" s="16"/>
+      <c r="CH55" s="14"/>
+      <c r="CI55" s="15"/>
+      <c r="CJ55" s="15"/>
+      <c r="CK55" s="15"/>
+      <c r="CL55" s="15"/>
+      <c r="CM55" s="15"/>
+      <c r="CN55" s="15"/>
+      <c r="CO55" s="15"/>
+      <c r="CP55" s="15"/>
+      <c r="CQ55" s="15"/>
+      <c r="CR55" s="15"/>
+      <c r="CS55" s="15"/>
+      <c r="CT55" s="15"/>
+      <c r="CU55" s="15"/>
+      <c r="CV55" s="15"/>
+      <c r="CW55" s="15"/>
+      <c r="CX55" s="15"/>
+      <c r="CY55" s="15"/>
+      <c r="CZ55" s="15"/>
+      <c r="DA55" s="15"/>
+      <c r="DB55" s="15"/>
+      <c r="DC55" s="15"/>
+      <c r="DD55" s="16"/>
+      <c r="DG55" s="14"/>
+      <c r="DH55" s="15"/>
+      <c r="DI55" s="15"/>
+      <c r="DJ55" s="15"/>
+      <c r="DK55" s="15"/>
+      <c r="DL55" s="15"/>
+      <c r="DM55" s="15"/>
+      <c r="DN55" s="15"/>
+      <c r="DO55" s="15"/>
+      <c r="DP55" s="15"/>
+      <c r="DQ55" s="15"/>
+      <c r="DR55" s="15"/>
+      <c r="DS55" s="15"/>
+      <c r="DT55" s="15"/>
+      <c r="DU55" s="15"/>
+      <c r="DV55" s="15"/>
+      <c r="DW55" s="15"/>
+      <c r="DX55" s="15"/>
+      <c r="DY55" s="15"/>
+      <c r="DZ55" s="15"/>
+      <c r="EA55" s="15"/>
+      <c r="EB55" s="15"/>
+      <c r="EC55" s="15"/>
+      <c r="ED55" s="15"/>
+      <c r="EE55" s="15"/>
+      <c r="EF55" s="15"/>
+      <c r="EG55" s="15"/>
+      <c r="EH55" s="16"/>
+    </row>
+    <row r="56" spans="2:138" x14ac:dyDescent="0.15">
+      <c r="AX56" s="17"/>
+      <c r="AY56" s="18"/>
+      <c r="AZ56" s="18"/>
+      <c r="BA56" s="18"/>
+      <c r="BB56" s="18"/>
+      <c r="BC56" s="18"/>
+      <c r="BD56" s="18"/>
+      <c r="BE56" s="18"/>
+      <c r="BF56" s="18"/>
+      <c r="BG56" s="18"/>
+      <c r="BH56" s="18"/>
+      <c r="BI56" s="18"/>
+      <c r="BJ56" s="18"/>
+      <c r="BK56" s="18"/>
+      <c r="BL56" s="18"/>
+      <c r="BM56" s="18"/>
+      <c r="BN56" s="18"/>
+      <c r="BO56" s="18"/>
+      <c r="BP56" s="18"/>
+      <c r="BQ56" s="18"/>
+      <c r="BR56" s="18"/>
+      <c r="BS56" s="18"/>
+      <c r="BT56" s="18"/>
+      <c r="BU56" s="18"/>
+      <c r="BV56" s="18"/>
+      <c r="BW56" s="18"/>
+      <c r="BX56" s="18"/>
+      <c r="BY56" s="18"/>
+      <c r="BZ56" s="18"/>
+      <c r="CA56" s="18"/>
+      <c r="CB56" s="18"/>
+      <c r="CC56" s="18"/>
+      <c r="CD56" s="19"/>
+      <c r="CH56" s="17"/>
+      <c r="CI56" s="18"/>
+      <c r="CJ56" s="18"/>
+      <c r="CK56" s="18"/>
+      <c r="CL56" s="18"/>
+      <c r="CM56" s="18"/>
+      <c r="CN56" s="18"/>
+      <c r="CO56" s="18"/>
+      <c r="CP56" s="18"/>
+      <c r="CQ56" s="18"/>
+      <c r="CR56" s="18"/>
+      <c r="CS56" s="18"/>
+      <c r="CT56" s="18"/>
+      <c r="CU56" s="18"/>
+      <c r="CV56" s="18"/>
+      <c r="CW56" s="18"/>
+      <c r="CX56" s="18"/>
+      <c r="CY56" s="18"/>
+      <c r="CZ56" s="18"/>
+      <c r="DA56" s="18"/>
+      <c r="DB56" s="18"/>
+      <c r="DC56" s="18"/>
+      <c r="DD56" s="19"/>
+      <c r="DG56" s="17"/>
+      <c r="DH56" s="18"/>
+      <c r="DI56" s="18"/>
+      <c r="DJ56" s="18"/>
+      <c r="DK56" s="18"/>
+      <c r="DL56" s="18"/>
+      <c r="DM56" s="18"/>
+      <c r="DN56" s="18"/>
+      <c r="DO56" s="18"/>
+      <c r="DP56" s="18"/>
+      <c r="DQ56" s="18"/>
+      <c r="DR56" s="18"/>
+      <c r="DS56" s="18"/>
+      <c r="DT56" s="18"/>
+      <c r="DU56" s="18"/>
+      <c r="DV56" s="18"/>
+      <c r="DW56" s="18"/>
+      <c r="DX56" s="18"/>
+      <c r="DY56" s="18"/>
+      <c r="DZ56" s="18"/>
+      <c r="EA56" s="18"/>
+      <c r="EB56" s="18"/>
+      <c r="EC56" s="18"/>
+      <c r="ED56" s="18"/>
+      <c r="EE56" s="18"/>
+      <c r="EF56" s="18"/>
+      <c r="EG56" s="18"/>
+      <c r="EH56" s="19"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2430,7 +8000,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
